--- a/PhoenixCI/Excel_Template/40012.xlsx
+++ b/PhoenixCI/Excel_Template/40012.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandylo\Desktop\Update Source\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3195" windowHeight="7065" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3193" windowHeight="7062" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future " sheetId="12" r:id="rId1"/>
@@ -2442,14 +2442,6 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>原始保證金A值</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>結算保證金A值</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
     <t>實際風險價格係數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4663,6 +4655,14 @@
       </rPr>
       <t>.以SMA或MAX計算保證金變動幅度已達 10%得調整標準，且進位後金額改變。</t>
     </r>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>結算保證金A值/B值</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始保證金A值/B值</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
 </sst>
@@ -4680,7 +4680,7 @@
     <numFmt numFmtId="182" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="183" formatCode="#,##0.0000_ "/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="54">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6394,20 +6394,20 @@
       <selection activeCell="B108" sqref="B108:J108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="9" customWidth="1"/>
-    <col min="3" max="7" width="19.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="9" customWidth="1"/>
+    <col min="3" max="7" width="19.77734375" style="9" customWidth="1"/>
     <col min="8" max="8" width="21" style="30" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="30" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="30" customWidth="1"/>
     <col min="11" max="11" width="11" style="30" customWidth="1"/>
-    <col min="12" max="13" width="9.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.77734375" style="30" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="30"/>
     <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16384" ht="17.55">
       <c r="A1" s="169"/>
       <c r="B1" s="169"/>
       <c r="C1" s="149"/>
@@ -6417,7 +6417,7 @@
       <c r="G1" s="149"/>
       <c r="H1" s="149"/>
       <c r="I1" s="209" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J1" s="209"/>
       <c r="K1" s="209"/>
@@ -22795,7 +22795,7 @@
       <c r="XFC1" s="209"/>
       <c r="XFD1" s="209"/>
     </row>
-    <row r="2" spans="1:16384" s="4" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16384" s="4" customFormat="1" ht="43.85" customHeight="1">
       <c r="A2" s="111" t="s">
         <v>32</v>
       </c>
@@ -22815,7 +22815,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="1:16384" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384" s="6" customFormat="1" ht="36.35">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
@@ -22830,13 +22830,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
@@ -22846,7 +22846,7 @@
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
     </row>
-    <row r="4" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16384" ht="30.05" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -22862,7 +22862,7 @@
       <c r="L4" s="35"/>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16384" ht="30.05" customHeight="1">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -22878,7 +22878,7 @@
       <c r="L5" s="35"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16384" ht="30.05" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
@@ -22894,7 +22894,7 @@
       <c r="L6" s="35"/>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16384" ht="30.05" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
@@ -22910,7 +22910,7 @@
       <c r="L7" s="35"/>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16384" ht="30.05" customHeight="1">
       <c r="B8" s="116" t="s">
         <v>36</v>
       </c>
@@ -22926,7 +22926,7 @@
       <c r="L8" s="35"/>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16384" ht="30.05" customHeight="1">
       <c r="B9" s="116" t="s">
         <v>35</v>
       </c>
@@ -22942,7 +22942,7 @@
       <c r="L9" s="35"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16384" ht="30.05" customHeight="1">
       <c r="B10" s="115" t="s">
         <v>11</v>
       </c>
@@ -22958,7 +22958,7 @@
       <c r="L10" s="35"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16384" ht="30.05" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
@@ -22974,7 +22974,7 @@
       <c r="L11" s="35"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:16384" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16384" ht="30.05" hidden="1" customHeight="1">
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
       <c r="D12" s="28"/>
@@ -22988,7 +22988,7 @@
       <c r="L12" s="35"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:16384" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16384" ht="30.05" hidden="1" customHeight="1">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="28"/>
@@ -23002,7 +23002,7 @@
       <c r="L13" s="35"/>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:16384" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16384" ht="30.05" hidden="1" customHeight="1">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="28"/>
@@ -23016,7 +23016,7 @@
       <c r="L14" s="35"/>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:16384" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16384" ht="30.05" hidden="1" customHeight="1">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="28"/>
@@ -23030,7 +23030,7 @@
       <c r="L15" s="35"/>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16384" ht="30.05" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
@@ -23046,9 +23046,9 @@
       <c r="L16" s="35"/>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="B17" s="168" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="168"/>
       <c r="D17" s="168"/>
@@ -23057,9 +23057,9 @@
       <c r="G17" s="168"/>
       <c r="H17" s="168"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="B18" s="114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -23067,9 +23067,9 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="14" customFormat="1" ht="17.55">
       <c r="B19" s="114" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -23084,7 +23084,7 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B20" s="48"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -23099,7 +23099,7 @@
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
     </row>
-    <row r="21" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B21" s="48"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -23114,7 +23114,7 @@
       <c r="M21" s="36"/>
       <c r="N21" s="36"/>
     </row>
-    <row r="22" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B22" s="48"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -23129,7 +23129,7 @@
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
     </row>
-    <row r="23" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B23" s="48"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -23144,7 +23144,7 @@
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B24" s="48"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -23159,7 +23159,7 @@
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
     </row>
-    <row r="25" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B25" s="48"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -23174,7 +23174,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
     </row>
-    <row r="26" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B26" s="48"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -23189,7 +23189,7 @@
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
     </row>
-    <row r="27" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B27" s="48"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -23204,7 +23204,7 @@
       <c r="M27" s="36"/>
       <c r="N27" s="36"/>
     </row>
-    <row r="28" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B28" s="48"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -23219,7 +23219,7 @@
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
     </row>
-    <row r="29" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B29" s="48"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -23234,7 +23234,7 @@
       <c r="M29" s="36"/>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B30" s="48"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -23249,7 +23249,7 @@
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
     </row>
-    <row r="31" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B31" s="48"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -23264,7 +23264,7 @@
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:14" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="19" customFormat="1" ht="43.55" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -23284,7 +23284,7 @@
       <c r="M32" s="38"/>
       <c r="N32" s="38"/>
     </row>
-    <row r="33" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="26.3" hidden="1" customHeight="1">
       <c r="B33" s="49" t="s">
         <v>8</v>
       </c>
@@ -23295,7 +23295,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="26.3" hidden="1" customHeight="1">
       <c r="B34" s="49" t="s">
         <v>9</v>
       </c>
@@ -23306,7 +23306,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="39"/>
     </row>
-    <row r="35" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="26.3" hidden="1" customHeight="1">
       <c r="B35" s="49" t="s">
         <v>12</v>
       </c>
@@ -23317,7 +23317,7 @@
       <c r="G35" s="18"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="26.3" hidden="1" customHeight="1">
       <c r="B36" s="97" t="s">
         <v>27</v>
       </c>
@@ -23328,9 +23328,9 @@
       <c r="G36" s="18"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="26.3" customHeight="1">
       <c r="B37" s="167" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
@@ -23339,37 +23339,37 @@
       <c r="G37" s="18"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="41.95" customHeight="1">
       <c r="B38" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="159" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="159" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E38" s="160" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F38" s="160" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H38" s="161" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I38" s="161" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J38" s="161" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O38" s="30"/>
     </row>
-    <row r="39" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
         <v>1</v>
@@ -23388,7 +23388,7 @@
       <c r="N39" s="40"/>
       <c r="O39" s="40"/>
     </row>
-    <row r="40" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
         <v>2</v>
@@ -23407,7 +23407,7 @@
       <c r="N40" s="40"/>
       <c r="O40" s="40"/>
     </row>
-    <row r="41" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
         <v>30</v>
@@ -23426,7 +23426,7 @@
       <c r="N41" s="40"/>
       <c r="O41" s="40"/>
     </row>
-    <row r="42" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="115" t="s">
         <v>31</v>
@@ -23445,7 +23445,7 @@
       <c r="N42" s="40"/>
       <c r="O42" s="40"/>
     </row>
-    <row r="43" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="116" t="s">
         <v>36</v>
@@ -23464,7 +23464,7 @@
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
     </row>
-    <row r="44" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="116" t="s">
         <v>35</v>
@@ -23483,7 +23483,7 @@
       <c r="N44" s="40"/>
       <c r="O44" s="40"/>
     </row>
-    <row r="45" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="115" t="s">
         <v>11</v>
@@ -23502,7 +23502,7 @@
       <c r="N45" s="40"/>
       <c r="O45" s="40"/>
     </row>
-    <row r="46" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
         <v>25</v>
@@ -23521,7 +23521,7 @@
       <c r="N46" s="40"/>
       <c r="O46" s="40"/>
     </row>
-    <row r="47" spans="1:15" s="22" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="22" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="165"/>
@@ -23538,7 +23538,7 @@
       <c r="N47" s="40"/>
       <c r="O47" s="40"/>
     </row>
-    <row r="48" spans="1:15" s="22" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="22" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="165"/>
@@ -23555,7 +23555,7 @@
       <c r="N48" s="40"/>
       <c r="O48" s="40"/>
     </row>
-    <row r="49" spans="1:15" s="22" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="22" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="165"/>
@@ -23572,7 +23572,7 @@
       <c r="N49" s="40"/>
       <c r="O49" s="40"/>
     </row>
-    <row r="50" spans="1:15" s="22" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="22" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="165"/>
@@ -23589,7 +23589,7 @@
       <c r="N50" s="40"/>
       <c r="O50" s="40"/>
     </row>
-    <row r="51" spans="1:15" s="22" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="22" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="165"/>
@@ -23606,7 +23606,7 @@
       <c r="N51" s="40"/>
       <c r="O51" s="40"/>
     </row>
-    <row r="52" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
         <v>26</v>
@@ -23625,7 +23625,7 @@
       <c r="N52" s="40"/>
       <c r="O52" s="40"/>
     </row>
-    <row r="53" spans="1:15" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="14" customFormat="1" ht="17.55">
       <c r="B53" s="48"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -23640,7 +23640,7 @@
       <c r="M53" s="36"/>
       <c r="N53" s="36"/>
     </row>
-    <row r="54" spans="1:15" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="14" customFormat="1" ht="17.55">
       <c r="B54" s="48"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -23655,9 +23655,9 @@
       <c r="M54" s="36"/>
       <c r="N54" s="36"/>
     </row>
-    <row r="55" spans="1:15" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="14" customFormat="1" ht="22.55">
       <c r="B55" s="167" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C55" s="15"/>
       <c r="E55" s="16"/>
@@ -23671,40 +23671,40 @@
       <c r="M55" s="36"/>
       <c r="N55" s="36"/>
     </row>
-    <row r="56" spans="1:15" s="14" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="14" customFormat="1" ht="44.45" customHeight="1">
       <c r="B56" s="148" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="159" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D56" s="159" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E56" s="160" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" s="160" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G56" s="160" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H56" s="161" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I56" s="161" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J56" s="161" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K56" s="37"/>
       <c r="L56" s="37"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
     </row>
-    <row r="57" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B57" s="8" t="s">
         <v>1</v>
       </c>
@@ -23721,7 +23721,7 @@
       <c r="M57" s="36"/>
       <c r="N57" s="36"/>
     </row>
-    <row r="58" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B58" s="8" t="s">
         <v>2</v>
       </c>
@@ -23738,7 +23738,7 @@
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
     </row>
-    <row r="59" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B59" s="8" t="s">
         <v>30</v>
       </c>
@@ -23755,7 +23755,7 @@
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
     </row>
-    <row r="60" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B60" s="115" t="s">
         <v>31</v>
       </c>
@@ -23772,7 +23772,7 @@
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
     </row>
-    <row r="61" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B61" s="116" t="s">
         <v>36</v>
       </c>
@@ -23789,7 +23789,7 @@
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
     </row>
-    <row r="62" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B62" s="116" t="s">
         <v>35</v>
       </c>
@@ -23806,7 +23806,7 @@
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
     </row>
-    <row r="63" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B63" s="115" t="s">
         <v>11</v>
       </c>
@@ -23823,7 +23823,7 @@
       <c r="M63" s="36"/>
       <c r="N63" s="36"/>
     </row>
-    <row r="64" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B64" s="8" t="s">
         <v>25</v>
       </c>
@@ -23840,7 +23840,7 @@
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
     </row>
-    <row r="65" spans="1:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="B65" s="8"/>
       <c r="C65" s="165"/>
       <c r="D65" s="20"/>
@@ -23855,7 +23855,7 @@
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
     </row>
-    <row r="66" spans="1:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="B66" s="8"/>
       <c r="C66" s="165"/>
       <c r="D66" s="20"/>
@@ -23870,7 +23870,7 @@
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
     </row>
-    <row r="67" spans="1:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="B67" s="8"/>
       <c r="C67" s="165"/>
       <c r="D67" s="20"/>
@@ -23885,7 +23885,7 @@
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
     </row>
-    <row r="68" spans="1:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="B68" s="8"/>
       <c r="C68" s="165"/>
       <c r="D68" s="20"/>
@@ -23900,7 +23900,7 @@
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
     </row>
-    <row r="69" spans="1:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="B69" s="8"/>
       <c r="C69" s="165"/>
       <c r="D69" s="20"/>
@@ -23915,7 +23915,7 @@
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
     </row>
-    <row r="70" spans="1:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B70" s="8" t="s">
         <v>26</v>
       </c>
@@ -23932,7 +23932,7 @@
       <c r="M70" s="36"/>
       <c r="N70" s="36"/>
     </row>
-    <row r="71" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="14" customFormat="1" ht="17.55">
       <c r="B71" s="48"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -23947,7 +23947,7 @@
       <c r="M71" s="36"/>
       <c r="N71" s="36"/>
     </row>
-    <row r="72" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="14" customFormat="1" ht="17.55">
       <c r="B72" s="48"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -23962,7 +23962,7 @@
       <c r="M72" s="36"/>
       <c r="N72" s="36"/>
     </row>
-    <row r="73" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="14" customFormat="1" ht="17.55">
       <c r="B73" s="48"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -23977,7 +23977,7 @@
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
     </row>
-    <row r="74" spans="1:14" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="14" customFormat="1" ht="18.2">
       <c r="B74" s="48"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -23987,14 +23987,14 @@
       <c r="H74" s="36"/>
       <c r="I74" s="37"/>
       <c r="J74" s="149" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K74" s="37"/>
       <c r="L74" s="37"/>
       <c r="M74" s="36"/>
       <c r="N74" s="36"/>
     </row>
-    <row r="75" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="14" customFormat="1" ht="17.55">
       <c r="A75" s="169"/>
       <c r="B75" s="48"/>
       <c r="C75" s="9"/>
@@ -24010,7 +24010,7 @@
       <c r="M75" s="36"/>
       <c r="N75" s="36"/>
     </row>
-    <row r="76" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="14" customFormat="1" ht="17.55">
       <c r="A76" s="169"/>
       <c r="B76" s="48"/>
       <c r="C76" s="9"/>
@@ -24026,7 +24026,7 @@
       <c r="M76" s="36"/>
       <c r="N76" s="36"/>
     </row>
-    <row r="77" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="14" customFormat="1" ht="17.55">
       <c r="A77" s="169"/>
       <c r="B77" s="48"/>
       <c r="C77" s="9"/>
@@ -24042,7 +24042,7 @@
       <c r="M77" s="36"/>
       <c r="N77" s="36"/>
     </row>
-    <row r="78" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="14" customFormat="1" ht="17.55">
       <c r="A78" s="169"/>
       <c r="B78" s="48"/>
       <c r="C78" s="9"/>
@@ -24058,7 +24058,7 @@
       <c r="M78" s="36"/>
       <c r="N78" s="36"/>
     </row>
-    <row r="79" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="14" customFormat="1" ht="17.55">
       <c r="A79" s="169"/>
       <c r="B79" s="48"/>
       <c r="C79" s="9"/>
@@ -24074,9 +24074,9 @@
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
     </row>
-    <row r="80" spans="1:14" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" s="14" customFormat="1" ht="22.55">
       <c r="B80" s="167" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C80" s="15"/>
       <c r="E80" s="16"/>
@@ -24090,40 +24090,40 @@
       <c r="M80" s="36"/>
       <c r="N80" s="36"/>
     </row>
-    <row r="81" spans="2:14" s="14" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" s="14" customFormat="1" ht="44.45" customHeight="1">
       <c r="B81" s="148" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="159" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D81" s="159" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E81" s="160" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="160" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G81" s="160" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H81" s="161" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I81" s="161" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J81" s="161" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K81" s="37"/>
       <c r="L81" s="37"/>
       <c r="M81" s="36"/>
       <c r="N81" s="36"/>
     </row>
-    <row r="82" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B82" s="8" t="s">
         <v>1</v>
       </c>
@@ -24140,7 +24140,7 @@
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
     </row>
-    <row r="83" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B83" s="8" t="s">
         <v>2</v>
       </c>
@@ -24157,7 +24157,7 @@
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
     </row>
-    <row r="84" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B84" s="8" t="s">
         <v>30</v>
       </c>
@@ -24174,7 +24174,7 @@
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
     </row>
-    <row r="85" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B85" s="115" t="s">
         <v>31</v>
       </c>
@@ -24191,7 +24191,7 @@
       <c r="M85" s="36"/>
       <c r="N85" s="36"/>
     </row>
-    <row r="86" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B86" s="116" t="s">
         <v>36</v>
       </c>
@@ -24208,7 +24208,7 @@
       <c r="M86" s="36"/>
       <c r="N86" s="36"/>
     </row>
-    <row r="87" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B87" s="116" t="s">
         <v>35</v>
       </c>
@@ -24225,7 +24225,7 @@
       <c r="M87" s="36"/>
       <c r="N87" s="36"/>
     </row>
-    <row r="88" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B88" s="115" t="s">
         <v>11</v>
       </c>
@@ -24242,7 +24242,7 @@
       <c r="M88" s="36"/>
       <c r="N88" s="36"/>
     </row>
-    <row r="89" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B89" s="8" t="s">
         <v>25</v>
       </c>
@@ -24259,7 +24259,7 @@
       <c r="M89" s="36"/>
       <c r="N89" s="36"/>
     </row>
-    <row r="90" spans="2:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="B90" s="8"/>
       <c r="C90" s="165"/>
       <c r="D90" s="20"/>
@@ -24274,7 +24274,7 @@
       <c r="M90" s="36"/>
       <c r="N90" s="36"/>
     </row>
-    <row r="91" spans="2:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="B91" s="8"/>
       <c r="C91" s="165"/>
       <c r="D91" s="20"/>
@@ -24289,7 +24289,7 @@
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
     </row>
-    <row r="92" spans="2:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="B92" s="8"/>
       <c r="C92" s="165"/>
       <c r="D92" s="20"/>
@@ -24304,7 +24304,7 @@
       <c r="M92" s="36"/>
       <c r="N92" s="36"/>
     </row>
-    <row r="93" spans="2:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="B93" s="8"/>
       <c r="C93" s="165"/>
       <c r="D93" s="20"/>
@@ -24319,7 +24319,7 @@
       <c r="M93" s="36"/>
       <c r="N93" s="36"/>
     </row>
-    <row r="94" spans="2:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
       <c r="B94" s="8"/>
       <c r="C94" s="165"/>
       <c r="D94" s="20"/>
@@ -24334,7 +24334,7 @@
       <c r="M94" s="36"/>
       <c r="N94" s="36"/>
     </row>
-    <row r="95" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
       <c r="B95" s="8" t="s">
         <v>26</v>
       </c>
@@ -24351,7 +24351,7 @@
       <c r="M95" s="36"/>
       <c r="N95" s="36"/>
     </row>
-    <row r="96" spans="2:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" s="14" customFormat="1" ht="17.55">
       <c r="B96" s="48"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -24366,7 +24366,7 @@
       <c r="M96" s="36"/>
       <c r="N96" s="36"/>
     </row>
-    <row r="97" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B97" s="48"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -24381,7 +24381,7 @@
       <c r="M97" s="36"/>
       <c r="N97" s="36"/>
     </row>
-    <row r="98" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B98" s="48"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -24396,7 +24396,7 @@
       <c r="M98" s="36"/>
       <c r="N98" s="36"/>
     </row>
-    <row r="99" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B99" s="48"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -24411,9 +24411,9 @@
       <c r="M99" s="36"/>
       <c r="N99" s="36"/>
     </row>
-    <row r="100" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="26.3" customHeight="1">
       <c r="A100" s="112" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B100" s="50" t="s">
         <v>10</v>
@@ -24425,7 +24425,7 @@
       <c r="G100" s="17"/>
       <c r="H100" s="41"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14">
       <c r="B101" s="117" t="s">
         <v>37</v>
       </c>
@@ -24434,12 +24434,12 @@
       <c r="F101" s="15"/>
       <c r="H101" s="41"/>
     </row>
-    <row r="102" spans="1:14" s="205" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="205" customFormat="1">
       <c r="A102" s="204">
         <v>1</v>
       </c>
       <c r="B102" s="208" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="208"/>
       <c r="D102" s="208"/>
@@ -24450,7 +24450,7 @@
       <c r="I102" s="208"/>
       <c r="J102" s="208"/>
     </row>
-    <row r="103" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" s="27" customFormat="1">
       <c r="A103" s="7"/>
       <c r="B103" s="15"/>
       <c r="C103" s="24"/>
@@ -24466,7 +24466,7 @@
       <c r="M103" s="30"/>
       <c r="N103" s="30"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14">
       <c r="B104" s="117" t="s">
         <v>38</v>
       </c>
@@ -24475,12 +24475,12 @@
       <c r="F104" s="15"/>
       <c r="H104" s="41"/>
     </row>
-    <row r="105" spans="1:14" s="205" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="205" customFormat="1">
       <c r="A105" s="204">
         <v>2</v>
       </c>
       <c r="B105" s="208" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C105" s="208"/>
       <c r="D105" s="208"/>
@@ -24491,13 +24491,13 @@
       <c r="I105" s="208"/>
       <c r="J105" s="208"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14">
       <c r="A106" s="98"/>
       <c r="B106" s="147"/>
       <c r="D106" s="25"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14">
       <c r="B107" s="117" t="s">
         <v>38</v>
       </c>
@@ -24506,12 +24506,12 @@
       <c r="F107" s="15"/>
       <c r="H107" s="41"/>
     </row>
-    <row r="108" spans="1:14" s="205" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="205" customFormat="1">
       <c r="A108" s="204">
         <v>3</v>
       </c>
       <c r="B108" s="208" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C108" s="208"/>
       <c r="D108" s="208"/>
@@ -24522,13 +24522,13 @@
       <c r="I108" s="208"/>
       <c r="J108" s="208"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14">
       <c r="B109" s="15"/>
       <c r="D109" s="25"/>
       <c r="E109" s="4"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14">
       <c r="B110" s="26" t="s">
         <v>0</v>
       </c>
@@ -24538,10 +24538,10 @@
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:14" hidden="1"/>
+    <row r="113" hidden="1"/>
+    <row r="114" hidden="1"/>
+    <row r="115" hidden="1"/>
   </sheetData>
   <mergeCells count="8192">
     <mergeCell ref="XFA1:XFB1"/>
@@ -32744,7 +32744,6 @@
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;C&amp;"標楷體,粗體"&amp;28下午4時15分收盤期貨契約保證金狀況表&amp;R&amp;"標楷體,標準"&amp;16
 </oddHeader>
-    <oddFooter xml:space="preserve">&amp;R&amp;"標楷體,標準"&amp;8檔案：&amp;"Times New Roman,標準"&amp;F&amp;"標楷體,標準" </oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="73" max="9" man="1"/>
@@ -32757,44 +32756,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M197"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B128" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B128" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D139" sqref="D139:D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.65"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="52" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="52" customWidth="1"/>
+    <col min="1" max="1" width="0.109375" style="52" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="10" style="52" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="52" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="52" customWidth="1"/>
-    <col min="9" max="10" width="9.5" style="54" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="52" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="52" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="52" customWidth="1"/>
+    <col min="9" max="10" width="9.44140625" style="54" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="52" customWidth="1"/>
     <col min="12" max="13" width="9" style="52"/>
-    <col min="14" max="14" width="5.25" style="52" customWidth="1"/>
+    <col min="14" max="14" width="5.21875" style="52" customWidth="1"/>
     <col min="15" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="J3" s="186" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="L4" s="173"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="I5" s="53"/>
     </row>
-    <row r="7" spans="1:12" s="59" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="59" customFormat="1" ht="22.55" customHeight="1">
       <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
@@ -32804,29 +32803,29 @@
       <c r="I7" s="60"/>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="1:12" s="61" customFormat="1" ht="73.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="61" customFormat="1" ht="73.75" customHeight="1">
       <c r="B8" s="172" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="218" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" s="218"/>
       <c r="E8" s="218" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="218"/>
       <c r="G8" s="219" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H8" s="219"/>
       <c r="I8" s="62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J8" s="54"/>
       <c r="K8" s="63"/>
     </row>
-    <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="B9" s="64" t="s">
         <v>21</v>
       </c>
@@ -32843,7 +32842,7 @@
       <c r="K9" s="107"/>
       <c r="L9" s="107"/>
     </row>
-    <row r="10" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B10" s="64" t="s">
         <v>22</v>
       </c>
@@ -32862,7 +32861,7 @@
       <c r="K10" s="108"/>
       <c r="L10" s="108"/>
     </row>
-    <row r="11" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B11" s="64" t="s">
         <v>23</v>
       </c>
@@ -32879,7 +32878,7 @@
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
     </row>
-    <row r="12" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B12" s="64" t="s">
         <v>24</v>
       </c>
@@ -32898,7 +32897,7 @@
       <c r="K12" s="108"/>
       <c r="L12" s="108"/>
     </row>
-    <row r="13" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B13" s="99" t="s">
         <v>28</v>
       </c>
@@ -32915,7 +32914,7 @@
       <c r="K13" s="108"/>
       <c r="L13" s="108"/>
     </row>
-    <row r="14" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B14" s="99" t="s">
         <v>29</v>
       </c>
@@ -32930,9 +32929,9 @@
       <c r="K14" s="108"/>
       <c r="L14" s="108"/>
     </row>
-    <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="B15" s="68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="66"/>
@@ -32941,9 +32940,9 @@
       <c r="G15" s="65"/>
       <c r="H15" s="65"/>
     </row>
-    <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="B16" s="68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="66"/>
@@ -32952,7 +32951,7 @@
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
     </row>
-    <row r="17" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B17" s="68"/>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
@@ -32963,7 +32962,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B18" s="68"/>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -32974,7 +32973,7 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B19" s="68"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -32985,7 +32984,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B20" s="68"/>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
@@ -32996,7 +32995,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B21" s="68"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
@@ -33007,7 +33006,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B22" s="68"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
@@ -33018,7 +33017,7 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B23" s="68"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
@@ -33029,7 +33028,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B24" s="68"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
@@ -33040,7 +33039,7 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B25" s="68"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
@@ -33051,7 +33050,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B26" s="68"/>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
@@ -33062,7 +33061,7 @@
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B27" s="68"/>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
@@ -33073,7 +33072,7 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B28" s="68"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -33084,7 +33083,7 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B29" s="68"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -33095,7 +33094,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B30" s="68"/>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -33106,7 +33105,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B31" s="68"/>
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
@@ -33117,7 +33116,7 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B32" s="68"/>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
@@ -33128,7 +33127,7 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B33" s="68"/>
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
@@ -33139,7 +33138,7 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B34" s="68"/>
       <c r="C34" s="52"/>
       <c r="D34" s="52"/>
@@ -33150,7 +33149,7 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B35" s="68"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
@@ -33161,7 +33160,7 @@
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B36" s="68"/>
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
@@ -33172,7 +33171,7 @@
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
     </row>
-    <row r="37" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B37" s="68"/>
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
@@ -33183,7 +33182,7 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
     </row>
-    <row r="38" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B38" s="68"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
@@ -33194,7 +33193,7 @@
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
     </row>
-    <row r="39" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B39" s="68"/>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
@@ -33205,7 +33204,7 @@
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
     </row>
-    <row r="40" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B40" s="68"/>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
@@ -33216,7 +33215,7 @@
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
     </row>
-    <row r="41" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B41" s="68"/>
       <c r="C41" s="52"/>
       <c r="D41" s="52"/>
@@ -33227,7 +33226,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
     </row>
-    <row r="42" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B42" s="68"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
@@ -33238,7 +33237,7 @@
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
     </row>
-    <row r="43" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B43" s="68"/>
       <c r="C43" s="52"/>
       <c r="D43" s="52"/>
@@ -33249,7 +33248,7 @@
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
     </row>
-    <row r="44" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
@@ -33260,77 +33259,77 @@
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
     </row>
-    <row r="45" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A45" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H45" s="70"/>
     </row>
-    <row r="46" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="B46" s="71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C46" s="71"/>
       <c r="D46" s="65"/>
       <c r="E46" s="72"/>
       <c r="F46" s="73"/>
     </row>
-    <row r="47" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="B47" s="71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C47" s="71"/>
       <c r="D47" s="65"/>
       <c r="E47" s="72"/>
       <c r="F47" s="73"/>
     </row>
-    <row r="48" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="B48" s="107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C48" s="71"/>
       <c r="D48" s="65"/>
       <c r="E48" s="72"/>
       <c r="F48" s="73"/>
     </row>
-    <row r="49" spans="2:13" s="59" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" s="59" customFormat="1" ht="75.8" customHeight="1">
       <c r="B49" s="172" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="172" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D49" s="172" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E49" s="172" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F49" s="172" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="H49" s="172" t="s">
-        <v>153</v>
-      </c>
       <c r="I49" s="74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J49" s="178" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K49" s="74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L49" s="75"/>
       <c r="M49" s="75"/>
     </row>
-    <row r="50" spans="2:13" s="65" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" s="65" customFormat="1" ht="19.75" customHeight="1">
       <c r="B50" s="64" t="s">
         <v>21</v>
       </c>
@@ -33348,7 +33347,7 @@
       <c r="L50" s="109"/>
       <c r="M50" s="80"/>
     </row>
-    <row r="51" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B51" s="64" t="s">
         <v>22</v>
       </c>
@@ -33369,7 +33368,7 @@
       <c r="L51" s="109"/>
       <c r="M51" s="80"/>
     </row>
-    <row r="52" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B52" s="64" t="s">
         <v>23</v>
       </c>
@@ -33387,7 +33386,7 @@
       <c r="L52" s="109"/>
       <c r="M52" s="80"/>
     </row>
-    <row r="53" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B53" s="64" t="s">
         <v>24</v>
       </c>
@@ -33408,7 +33407,7 @@
       <c r="L53" s="109"/>
       <c r="M53" s="80"/>
     </row>
-    <row r="54" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B54" s="99" t="s">
         <v>28</v>
       </c>
@@ -33426,7 +33425,7 @@
       <c r="L54" s="109"/>
       <c r="M54" s="80"/>
     </row>
-    <row r="55" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B55" s="99" t="s">
         <v>29</v>
       </c>
@@ -33447,7 +33446,7 @@
       <c r="L55" s="109"/>
       <c r="M55" s="80"/>
     </row>
-    <row r="56" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B56" s="100"/>
       <c r="C56" s="180"/>
       <c r="D56" s="181"/>
@@ -33461,7 +33460,7 @@
       <c r="L56" s="109"/>
       <c r="M56" s="80"/>
     </row>
-    <row r="57" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B57" s="100"/>
       <c r="C57" s="180"/>
       <c r="D57" s="181"/>
@@ -33475,7 +33474,7 @@
       <c r="L57" s="109"/>
       <c r="M57" s="80"/>
     </row>
-    <row r="58" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B58" s="100"/>
       <c r="C58" s="180"/>
       <c r="D58" s="181"/>
@@ -33489,7 +33488,7 @@
       <c r="L58" s="109"/>
       <c r="M58" s="80"/>
     </row>
-    <row r="59" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B59" s="68"/>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
@@ -33500,7 +33499,7 @@
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
     </row>
-    <row r="60" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B60" s="68"/>
       <c r="C60" s="52"/>
       <c r="D60" s="52"/>
@@ -33511,7 +33510,7 @@
       <c r="I60" s="29"/>
       <c r="J60" s="29"/>
     </row>
-    <row r="61" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B61" s="68"/>
       <c r="C61" s="52"/>
       <c r="D61" s="52"/>
@@ -33522,7 +33521,7 @@
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
     </row>
-    <row r="62" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B62" s="68"/>
       <c r="C62" s="52"/>
       <c r="D62" s="52"/>
@@ -33533,7 +33532,7 @@
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
     </row>
-    <row r="63" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B63" s="68"/>
       <c r="C63" s="52"/>
       <c r="D63" s="52"/>
@@ -33544,7 +33543,7 @@
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
     </row>
-    <row r="64" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B64" s="68"/>
       <c r="C64" s="52"/>
       <c r="D64" s="52"/>
@@ -33555,7 +33554,7 @@
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
     </row>
-    <row r="65" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B65" s="68"/>
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
@@ -33566,7 +33565,7 @@
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B66" s="68"/>
       <c r="C66" s="52"/>
       <c r="D66" s="52"/>
@@ -33577,7 +33576,7 @@
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
     </row>
-    <row r="67" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B67" s="68"/>
       <c r="C67" s="52"/>
       <c r="D67" s="52"/>
@@ -33588,7 +33587,7 @@
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B68" s="68"/>
       <c r="C68" s="52"/>
       <c r="D68" s="52"/>
@@ -33599,7 +33598,7 @@
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B69" s="68"/>
       <c r="C69" s="52"/>
       <c r="D69" s="52"/>
@@ -33610,7 +33609,7 @@
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
     </row>
-    <row r="70" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B70" s="68"/>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
@@ -33621,7 +33620,7 @@
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
     </row>
-    <row r="71" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B71" s="68"/>
       <c r="C71" s="52"/>
       <c r="D71" s="52"/>
@@ -33632,7 +33631,7 @@
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
     </row>
-    <row r="72" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B72" s="68"/>
       <c r="C72" s="52"/>
       <c r="D72" s="52"/>
@@ -33643,7 +33642,7 @@
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B73" s="68"/>
       <c r="C73" s="52"/>
       <c r="D73" s="52"/>
@@ -33654,7 +33653,7 @@
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
     </row>
-    <row r="74" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B74" s="68"/>
       <c r="C74" s="52"/>
       <c r="D74" s="52"/>
@@ -33665,7 +33664,7 @@
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
     </row>
-    <row r="75" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B75" s="68"/>
       <c r="C75" s="52"/>
       <c r="D75" s="52"/>
@@ -33676,7 +33675,7 @@
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B76" s="68"/>
       <c r="C76" s="52"/>
       <c r="D76" s="52"/>
@@ -33687,7 +33686,7 @@
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
     </row>
-    <row r="77" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B77" s="68"/>
       <c r="C77" s="52"/>
       <c r="D77" s="52"/>
@@ -33698,7 +33697,7 @@
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B78" s="68"/>
       <c r="C78" s="52"/>
       <c r="D78" s="52"/>
@@ -33709,7 +33708,7 @@
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
     </row>
-    <row r="79" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B79" s="68"/>
       <c r="C79" s="52"/>
       <c r="D79" s="52"/>
@@ -33720,7 +33719,7 @@
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
     </row>
-    <row r="80" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B80" s="68"/>
       <c r="C80" s="52"/>
       <c r="D80" s="52"/>
@@ -33731,7 +33730,7 @@
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
     </row>
-    <row r="81" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B81" s="68"/>
       <c r="C81" s="52"/>
       <c r="D81" s="52"/>
@@ -33742,7 +33741,7 @@
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
     </row>
-    <row r="82" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B82" s="68"/>
       <c r="C82" s="52"/>
       <c r="D82" s="52"/>
@@ -33753,9 +33752,9 @@
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
     </row>
-    <row r="83" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B83" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C83" s="52"/>
       <c r="D83" s="52"/>
@@ -33766,39 +33765,39 @@
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
     </row>
-    <row r="84" spans="2:11" s="65" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" s="65" customFormat="1" ht="83.3" customHeight="1">
       <c r="B84" s="172" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="172" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="172" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" s="172" t="s">
+        <v>139</v>
+      </c>
+      <c r="F84" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="G84" s="203" t="s">
+        <v>150</v>
+      </c>
+      <c r="H84" s="203" t="s">
+        <v>129</v>
+      </c>
+      <c r="I84" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="J84" s="178" t="s">
+        <v>146</v>
+      </c>
+      <c r="K84" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="D84" s="172" t="s">
-        <v>140</v>
-      </c>
-      <c r="E84" s="172" t="s">
-        <v>141</v>
-      </c>
-      <c r="F84" s="203" t="s">
-        <v>151</v>
-      </c>
-      <c r="G84" s="203" t="s">
-        <v>152</v>
-      </c>
-      <c r="H84" s="203" t="s">
-        <v>131</v>
-      </c>
-      <c r="I84" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="J84" s="178" t="s">
-        <v>148</v>
-      </c>
-      <c r="K84" s="74" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="85" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B85" s="64" t="s">
         <v>21</v>
       </c>
@@ -33814,7 +33813,7 @@
       <c r="J85" s="170"/>
       <c r="K85" s="187"/>
     </row>
-    <row r="86" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B86" s="64" t="s">
         <v>22</v>
       </c>
@@ -33830,7 +33829,7 @@
       <c r="J86" s="170"/>
       <c r="K86" s="188"/>
     </row>
-    <row r="87" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B87" s="64" t="s">
         <v>23</v>
       </c>
@@ -33846,7 +33845,7 @@
       <c r="J87" s="170"/>
       <c r="K87" s="187"/>
     </row>
-    <row r="88" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B88" s="64" t="s">
         <v>24</v>
       </c>
@@ -33862,7 +33861,7 @@
       <c r="J88" s="170"/>
       <c r="K88" s="188"/>
     </row>
-    <row r="89" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B89" s="99" t="s">
         <v>28</v>
       </c>
@@ -33878,7 +33877,7 @@
       <c r="J89" s="170"/>
       <c r="K89" s="187"/>
     </row>
-    <row r="90" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B90" s="99" t="s">
         <v>29</v>
       </c>
@@ -33894,7 +33893,7 @@
       <c r="J90" s="170"/>
       <c r="K90" s="188"/>
     </row>
-    <row r="91" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B91" s="68"/>
       <c r="C91" s="52"/>
       <c r="D91" s="52"/>
@@ -33905,7 +33904,7 @@
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
     </row>
-    <row r="92" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B92" s="68"/>
       <c r="C92" s="52"/>
       <c r="D92" s="52"/>
@@ -33916,7 +33915,7 @@
       <c r="I92" s="29"/>
       <c r="J92" s="29"/>
     </row>
-    <row r="93" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B93" s="68"/>
       <c r="C93" s="52"/>
       <c r="D93" s="52"/>
@@ -33927,7 +33926,7 @@
       <c r="I93" s="29"/>
       <c r="J93" s="29"/>
     </row>
-    <row r="94" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B94" s="68"/>
       <c r="C94" s="52"/>
       <c r="D94" s="52"/>
@@ -33938,7 +33937,7 @@
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
     </row>
-    <row r="95" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B95" s="68"/>
       <c r="C95" s="52"/>
       <c r="D95" s="52"/>
@@ -33949,7 +33948,7 @@
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
     </row>
-    <row r="96" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B96" s="68"/>
       <c r="C96" s="52"/>
       <c r="D96" s="52"/>
@@ -33960,7 +33959,7 @@
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B97" s="68"/>
       <c r="C97" s="52"/>
       <c r="D97" s="52"/>
@@ -33971,7 +33970,7 @@
       <c r="I97" s="29"/>
       <c r="J97" s="29"/>
     </row>
-    <row r="98" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B98" s="68"/>
       <c r="C98" s="52"/>
       <c r="D98" s="52"/>
@@ -33982,7 +33981,7 @@
       <c r="I98" s="29"/>
       <c r="J98" s="29"/>
     </row>
-    <row r="99" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B99" s="68"/>
       <c r="C99" s="52"/>
       <c r="D99" s="52"/>
@@ -33993,7 +33992,7 @@
       <c r="I99" s="29"/>
       <c r="J99" s="29"/>
     </row>
-    <row r="100" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B100" s="68"/>
       <c r="C100" s="52"/>
       <c r="D100" s="52"/>
@@ -34004,7 +34003,7 @@
       <c r="I100" s="29"/>
       <c r="J100" s="29"/>
     </row>
-    <row r="101" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B101" s="68"/>
       <c r="C101" s="52"/>
       <c r="D101" s="52"/>
@@ -34015,7 +34014,7 @@
       <c r="I101" s="29"/>
       <c r="J101" s="29"/>
     </row>
-    <row r="102" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B102" s="68"/>
       <c r="C102" s="52"/>
       <c r="D102" s="52"/>
@@ -34026,7 +34025,7 @@
       <c r="I102" s="29"/>
       <c r="J102" s="29"/>
     </row>
-    <row r="103" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B103" s="68"/>
       <c r="C103" s="52"/>
       <c r="D103" s="52"/>
@@ -34037,7 +34036,7 @@
       <c r="I103" s="29"/>
       <c r="J103" s="29"/>
     </row>
-    <row r="104" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B104" s="68"/>
       <c r="C104" s="52"/>
       <c r="D104" s="52"/>
@@ -34048,7 +34047,7 @@
       <c r="I104" s="29"/>
       <c r="J104" s="29"/>
     </row>
-    <row r="105" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B105" s="68"/>
       <c r="C105" s="52"/>
       <c r="D105" s="52"/>
@@ -34059,7 +34058,7 @@
       <c r="I105" s="29"/>
       <c r="J105" s="29"/>
     </row>
-    <row r="106" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B106" s="68"/>
       <c r="C106" s="52"/>
       <c r="D106" s="52"/>
@@ -34070,7 +34069,7 @@
       <c r="I106" s="29"/>
       <c r="J106" s="29"/>
     </row>
-    <row r="107" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B107" s="68"/>
       <c r="C107" s="52"/>
       <c r="D107" s="52"/>
@@ -34081,7 +34080,7 @@
       <c r="I107" s="29"/>
       <c r="J107" s="29"/>
     </row>
-    <row r="108" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B108" s="68"/>
       <c r="C108" s="52"/>
       <c r="D108" s="52"/>
@@ -34092,7 +34091,7 @@
       <c r="I108" s="29"/>
       <c r="J108" s="29"/>
     </row>
-    <row r="109" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B109" s="68"/>
       <c r="C109" s="52"/>
       <c r="D109" s="52"/>
@@ -34103,7 +34102,7 @@
       <c r="I109" s="29"/>
       <c r="J109" s="29"/>
     </row>
-    <row r="110" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B110" s="68"/>
       <c r="C110" s="52"/>
       <c r="D110" s="52"/>
@@ -34114,7 +34113,7 @@
       <c r="I110" s="29"/>
       <c r="J110" s="29"/>
     </row>
-    <row r="111" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B111" s="68"/>
       <c r="C111" s="52"/>
       <c r="D111" s="52"/>
@@ -34125,7 +34124,7 @@
       <c r="I111" s="29"/>
       <c r="J111" s="29"/>
     </row>
-    <row r="112" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B112" s="68"/>
       <c r="C112" s="52"/>
       <c r="D112" s="52"/>
@@ -34136,7 +34135,7 @@
       <c r="I112" s="29"/>
       <c r="J112" s="29"/>
     </row>
-    <row r="113" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B113" s="68"/>
       <c r="C113" s="52"/>
       <c r="D113" s="52"/>
@@ -34147,7 +34146,7 @@
       <c r="I113" s="29"/>
       <c r="J113" s="29"/>
     </row>
-    <row r="114" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B114" s="68"/>
       <c r="C114" s="52"/>
       <c r="D114" s="52"/>
@@ -34158,7 +34157,7 @@
       <c r="I114" s="29"/>
       <c r="J114" s="29"/>
     </row>
-    <row r="115" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B115" s="68"/>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
@@ -34169,7 +34168,7 @@
       <c r="I115" s="29"/>
       <c r="J115" s="29"/>
     </row>
-    <row r="116" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B116" s="68"/>
       <c r="C116" s="52"/>
       <c r="D116" s="52"/>
@@ -34180,7 +34179,7 @@
       <c r="I116" s="29"/>
       <c r="J116" s="29"/>
     </row>
-    <row r="117" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B117" s="68"/>
       <c r="C117" s="52"/>
       <c r="D117" s="52"/>
@@ -34191,7 +34190,7 @@
       <c r="I117" s="29"/>
       <c r="J117" s="29"/>
     </row>
-    <row r="118" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B118" s="68"/>
       <c r="C118" s="52"/>
       <c r="D118" s="52"/>
@@ -34202,7 +34201,7 @@
       <c r="I118" s="29"/>
       <c r="J118" s="29"/>
     </row>
-    <row r="119" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B119" s="68"/>
       <c r="C119" s="52"/>
       <c r="D119" s="52"/>
@@ -34213,7 +34212,7 @@
       <c r="I119" s="29"/>
       <c r="J119" s="29"/>
     </row>
-    <row r="120" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B120" s="68"/>
       <c r="C120" s="52"/>
       <c r="D120" s="52"/>
@@ -34224,7 +34223,7 @@
       <c r="I120" s="29"/>
       <c r="J120" s="29"/>
     </row>
-    <row r="121" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B121" s="68"/>
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
@@ -34235,7 +34234,7 @@
       <c r="I121" s="29"/>
       <c r="J121" s="29"/>
     </row>
-    <row r="122" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B122" s="68"/>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
@@ -34246,7 +34245,7 @@
       <c r="I122" s="29"/>
       <c r="J122" s="29"/>
     </row>
-    <row r="123" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B123" s="68"/>
       <c r="C123" s="52"/>
       <c r="D123" s="52"/>
@@ -34257,7 +34256,7 @@
       <c r="I123" s="29"/>
       <c r="J123" s="29"/>
     </row>
-    <row r="124" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B124" s="68"/>
       <c r="C124" s="52"/>
       <c r="D124" s="52"/>
@@ -34268,7 +34267,7 @@
       <c r="I124" s="29"/>
       <c r="J124" s="29"/>
     </row>
-    <row r="125" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B125" s="68"/>
       <c r="C125" s="52"/>
       <c r="D125" s="52"/>
@@ -34279,7 +34278,7 @@
       <c r="I125" s="29"/>
       <c r="J125" s="29"/>
     </row>
-    <row r="126" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B126" s="68"/>
       <c r="C126" s="52"/>
       <c r="D126" s="52"/>
@@ -34290,7 +34289,7 @@
       <c r="I126" s="29"/>
       <c r="J126" s="29"/>
     </row>
-    <row r="127" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B127" s="68"/>
       <c r="C127" s="52"/>
       <c r="D127" s="52"/>
@@ -34301,7 +34300,7 @@
       <c r="I127" s="29"/>
       <c r="J127" s="29"/>
     </row>
-    <row r="128" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B128" s="68"/>
       <c r="C128" s="52"/>
       <c r="D128" s="52"/>
@@ -34312,7 +34311,7 @@
       <c r="I128" s="29"/>
       <c r="J128" s="29"/>
     </row>
-    <row r="129" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B129" s="68"/>
       <c r="C129" s="52"/>
       <c r="D129" s="52"/>
@@ -34327,7 +34326,7 @@
         <v>資料日期：2011年2月22日</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B130" s="68"/>
       <c r="C130" s="52"/>
       <c r="D130" s="52"/>
@@ -34338,7 +34337,7 @@
       <c r="I130" s="29"/>
       <c r="J130" s="29"/>
     </row>
-    <row r="131" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B131" s="68"/>
       <c r="C131" s="52"/>
       <c r="D131" s="52"/>
@@ -34349,7 +34348,7 @@
       <c r="I131" s="29"/>
       <c r="J131" s="29"/>
     </row>
-    <row r="132" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B132" s="100"/>
       <c r="C132" s="101"/>
       <c r="D132" s="102"/>
@@ -34362,9 +34361,9 @@
       <c r="L132" s="79"/>
       <c r="M132" s="80"/>
     </row>
-    <row r="133" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B133" s="52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C133" s="52"/>
       <c r="D133" s="52"/>
@@ -34375,39 +34374,39 @@
       <c r="I133" s="29"/>
       <c r="J133" s="29"/>
     </row>
-    <row r="134" spans="2:13" s="65" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" s="65" customFormat="1" ht="80.150000000000006">
       <c r="B134" s="172" t="s">
         <v>17</v>
       </c>
       <c r="C134" s="172" t="s">
+        <v>128</v>
+      </c>
+      <c r="D134" s="172" t="s">
+        <v>138</v>
+      </c>
+      <c r="E134" s="172" t="s">
+        <v>139</v>
+      </c>
+      <c r="F134" s="196" t="s">
+        <v>149</v>
+      </c>
+      <c r="G134" s="196" t="s">
+        <v>150</v>
+      </c>
+      <c r="H134" s="196" t="s">
+        <v>151</v>
+      </c>
+      <c r="I134" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="J134" s="178" t="s">
+        <v>146</v>
+      </c>
+      <c r="K134" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="D134" s="172" t="s">
-        <v>140</v>
-      </c>
-      <c r="E134" s="172" t="s">
-        <v>141</v>
-      </c>
-      <c r="F134" s="196" t="s">
-        <v>151</v>
-      </c>
-      <c r="G134" s="196" t="s">
-        <v>152</v>
-      </c>
-      <c r="H134" s="196" t="s">
-        <v>153</v>
-      </c>
-      <c r="I134" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="J134" s="178" t="s">
-        <v>148</v>
-      </c>
-      <c r="K134" s="74" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="135" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B135" s="64" t="s">
         <v>21</v>
       </c>
@@ -34423,7 +34422,7 @@
       <c r="J135" s="170"/>
       <c r="K135" s="187"/>
     </row>
-    <row r="136" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B136" s="64" t="s">
         <v>22</v>
       </c>
@@ -34442,7 +34441,7 @@
       <c r="J136" s="170"/>
       <c r="K136" s="188"/>
     </row>
-    <row r="137" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B137" s="64" t="s">
         <v>23</v>
       </c>
@@ -34458,7 +34457,7 @@
       <c r="J137" s="170"/>
       <c r="K137" s="187"/>
     </row>
-    <row r="138" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B138" s="64" t="s">
         <v>24</v>
       </c>
@@ -34477,7 +34476,7 @@
       <c r="J138" s="170"/>
       <c r="K138" s="188"/>
     </row>
-    <row r="139" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B139" s="99" t="s">
         <v>28</v>
       </c>
@@ -34493,7 +34492,7 @@
       <c r="J139" s="170"/>
       <c r="K139" s="187"/>
     </row>
-    <row r="140" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B140" s="99" t="s">
         <v>29</v>
       </c>
@@ -34512,9 +34511,9 @@
       <c r="J140" s="170"/>
       <c r="K140" s="188"/>
     </row>
-    <row r="141" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B141" s="212" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C141" s="212"/>
       <c r="D141" s="212"/>
@@ -34528,7 +34527,7 @@
       <c r="L141" s="80"/>
       <c r="M141" s="80"/>
     </row>
-    <row r="142" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B142" s="84"/>
       <c r="C142" s="85"/>
       <c r="D142" s="86"/>
@@ -34542,7 +34541,7 @@
       <c r="L142" s="80"/>
       <c r="M142" s="80"/>
     </row>
-    <row r="143" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B143" s="84"/>
       <c r="C143" s="85"/>
       <c r="D143" s="86"/>
@@ -34556,7 +34555,7 @@
       <c r="L143" s="80"/>
       <c r="M143" s="80"/>
     </row>
-    <row r="144" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B144" s="84"/>
       <c r="C144" s="85"/>
       <c r="D144" s="86"/>
@@ -34570,7 +34569,7 @@
       <c r="L144" s="80"/>
       <c r="M144" s="80"/>
     </row>
-    <row r="145" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B145" s="84"/>
       <c r="C145" s="85"/>
       <c r="D145" s="86"/>
@@ -34584,7 +34583,7 @@
       <c r="L145" s="80"/>
       <c r="M145" s="80"/>
     </row>
-    <row r="146" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B146" s="84"/>
       <c r="C146" s="85"/>
       <c r="D146" s="86"/>
@@ -34598,7 +34597,7 @@
       <c r="L146" s="80"/>
       <c r="M146" s="80"/>
     </row>
-    <row r="147" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B147" s="84"/>
       <c r="C147" s="85"/>
       <c r="D147" s="86"/>
@@ -34612,7 +34611,7 @@
       <c r="L147" s="80"/>
       <c r="M147" s="80"/>
     </row>
-    <row r="148" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B148" s="84"/>
       <c r="C148" s="85"/>
       <c r="D148" s="86"/>
@@ -34626,7 +34625,7 @@
       <c r="L148" s="80"/>
       <c r="M148" s="80"/>
     </row>
-    <row r="149" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B149" s="84"/>
       <c r="C149" s="85"/>
       <c r="D149" s="86"/>
@@ -34640,7 +34639,7 @@
       <c r="L149" s="80"/>
       <c r="M149" s="80"/>
     </row>
-    <row r="150" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B150" s="84"/>
       <c r="C150" s="85"/>
       <c r="D150" s="86"/>
@@ -34654,7 +34653,7 @@
       <c r="L150" s="80"/>
       <c r="M150" s="80"/>
     </row>
-    <row r="151" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B151" s="84"/>
       <c r="C151" s="85"/>
       <c r="D151" s="86"/>
@@ -34668,7 +34667,7 @@
       <c r="L151" s="80"/>
       <c r="M151" s="80"/>
     </row>
-    <row r="152" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B152" s="84"/>
       <c r="C152" s="85"/>
       <c r="D152" s="86"/>
@@ -34682,7 +34681,7 @@
       <c r="L152" s="80"/>
       <c r="M152" s="80"/>
     </row>
-    <row r="153" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B153" s="84"/>
       <c r="C153" s="85"/>
       <c r="D153" s="86"/>
@@ -34696,7 +34695,7 @@
       <c r="L153" s="80"/>
       <c r="M153" s="80"/>
     </row>
-    <row r="154" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B154" s="84"/>
       <c r="C154" s="85"/>
       <c r="D154" s="86"/>
@@ -34710,7 +34709,7 @@
       <c r="L154" s="80"/>
       <c r="M154" s="80"/>
     </row>
-    <row r="155" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B155" s="84"/>
       <c r="C155" s="85"/>
       <c r="D155" s="86"/>
@@ -34724,7 +34723,7 @@
       <c r="L155" s="80"/>
       <c r="M155" s="80"/>
     </row>
-    <row r="156" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B156" s="84"/>
       <c r="C156" s="85"/>
       <c r="D156" s="86"/>
@@ -34738,7 +34737,7 @@
       <c r="L156" s="80"/>
       <c r="M156" s="80"/>
     </row>
-    <row r="157" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B157" s="84"/>
       <c r="C157" s="85"/>
       <c r="D157" s="86"/>
@@ -34752,7 +34751,7 @@
       <c r="L157" s="80"/>
       <c r="M157" s="80"/>
     </row>
-    <row r="158" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B158" s="84"/>
       <c r="C158" s="85"/>
       <c r="D158" s="86"/>
@@ -34766,7 +34765,7 @@
       <c r="L158" s="80"/>
       <c r="M158" s="80"/>
     </row>
-    <row r="159" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B159" s="84"/>
       <c r="C159" s="85"/>
       <c r="D159" s="86"/>
@@ -34780,7 +34779,7 @@
       <c r="L159" s="80"/>
       <c r="M159" s="80"/>
     </row>
-    <row r="160" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B160" s="84"/>
       <c r="C160" s="85"/>
       <c r="D160" s="86"/>
@@ -34794,7 +34793,7 @@
       <c r="L160" s="80"/>
       <c r="M160" s="80"/>
     </row>
-    <row r="161" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B161" s="84"/>
       <c r="C161" s="85"/>
       <c r="D161" s="86"/>
@@ -34808,7 +34807,7 @@
       <c r="L161" s="80"/>
       <c r="M161" s="80"/>
     </row>
-    <row r="162" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B162" s="84"/>
       <c r="C162" s="85"/>
       <c r="D162" s="86"/>
@@ -34822,7 +34821,7 @@
       <c r="L162" s="80"/>
       <c r="M162" s="80"/>
     </row>
-    <row r="163" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B163" s="84"/>
       <c r="C163" s="85"/>
       <c r="D163" s="86"/>
@@ -34836,7 +34835,7 @@
       <c r="L163" s="80"/>
       <c r="M163" s="80"/>
     </row>
-    <row r="164" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B164" s="84"/>
       <c r="C164" s="85"/>
       <c r="D164" s="86"/>
@@ -34850,7 +34849,7 @@
       <c r="L164" s="80"/>
       <c r="M164" s="80"/>
     </row>
-    <row r="165" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B165" s="84"/>
       <c r="C165" s="85"/>
       <c r="D165" s="86"/>
@@ -34864,7 +34863,7 @@
       <c r="L165" s="80"/>
       <c r="M165" s="80"/>
     </row>
-    <row r="166" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B166" s="84"/>
       <c r="C166" s="85"/>
       <c r="D166" s="86"/>
@@ -34878,7 +34877,7 @@
       <c r="L166" s="80"/>
       <c r="M166" s="80"/>
     </row>
-    <row r="167" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B167" s="84"/>
       <c r="C167" s="85"/>
       <c r="D167" s="86"/>
@@ -34892,7 +34891,7 @@
       <c r="L167" s="80"/>
       <c r="M167" s="80"/>
     </row>
-    <row r="168" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B168" s="84"/>
       <c r="C168" s="85"/>
       <c r="D168" s="86"/>
@@ -34906,7 +34905,7 @@
       <c r="L168" s="80"/>
       <c r="M168" s="80"/>
     </row>
-    <row r="169" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B169" s="84"/>
       <c r="C169" s="85"/>
       <c r="D169" s="86"/>
@@ -34920,7 +34919,7 @@
       <c r="L169" s="80"/>
       <c r="M169" s="80"/>
     </row>
-    <row r="170" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B170" s="84"/>
       <c r="C170" s="85"/>
       <c r="D170" s="86"/>
@@ -34934,7 +34933,7 @@
       <c r="L170" s="80"/>
       <c r="M170" s="80"/>
     </row>
-    <row r="171" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B171" s="84"/>
       <c r="C171" s="85"/>
       <c r="D171" s="86"/>
@@ -34948,7 +34947,7 @@
       <c r="L171" s="80"/>
       <c r="M171" s="80"/>
     </row>
-    <row r="172" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B172" s="84"/>
       <c r="C172" s="85"/>
       <c r="D172" s="86"/>
@@ -34962,7 +34961,7 @@
       <c r="L172" s="80"/>
       <c r="M172" s="80"/>
     </row>
-    <row r="173" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B173" s="84"/>
       <c r="C173" s="85"/>
       <c r="D173" s="86"/>
@@ -34976,7 +34975,7 @@
       <c r="L173" s="80"/>
       <c r="M173" s="80"/>
     </row>
-    <row r="174" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B174" s="84"/>
       <c r="C174" s="85"/>
       <c r="D174" s="86"/>
@@ -34990,7 +34989,7 @@
       <c r="L174" s="80"/>
       <c r="M174" s="80"/>
     </row>
-    <row r="175" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A175" s="88"/>
       <c r="B175" s="84"/>
       <c r="C175" s="72"/>
@@ -34999,7 +34998,7 @@
       <c r="F175" s="72"/>
       <c r="G175" s="72"/>
     </row>
-    <row r="176" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A176" s="88"/>
       <c r="B176" s="84"/>
       <c r="C176" s="72"/>
@@ -35008,7 +35007,7 @@
       <c r="F176" s="72"/>
       <c r="G176" s="72"/>
     </row>
-    <row r="177" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A177" s="88"/>
       <c r="B177" s="84"/>
       <c r="C177" s="72"/>
@@ -35017,12 +35016,12 @@
       <c r="F177" s="72"/>
       <c r="G177" s="72"/>
     </row>
-    <row r="178" spans="1:11" s="88" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" s="88" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A178" s="90" t="s">
         <v>18</v>
       </c>
       <c r="B178" s="71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C178" s="31"/>
       <c r="D178" s="31"/>
@@ -35033,12 +35032,12 @@
       <c r="I178" s="91"/>
       <c r="J178" s="91"/>
     </row>
-    <row r="179" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A179" s="92" t="s">
         <v>19</v>
       </c>
       <c r="B179" s="175" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D179" s="176"/>
       <c r="E179" s="176"/>
@@ -35046,9 +35045,9 @@
       <c r="G179" s="93"/>
       <c r="H179" s="94"/>
     </row>
-    <row r="180" spans="1:11" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="40.4" customHeight="1">
       <c r="B180" s="216" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C180" s="216"/>
       <c r="D180" s="216"/>
@@ -35060,7 +35059,7 @@
       <c r="J180" s="216"/>
       <c r="K180" s="216"/>
     </row>
-    <row r="181" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="4.55" customHeight="1">
       <c r="B181" s="113"/>
       <c r="C181" s="113"/>
       <c r="D181" s="113"/>
@@ -35068,12 +35067,12 @@
       <c r="F181" s="113"/>
       <c r="G181" s="113"/>
     </row>
-    <row r="182" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A182" s="92" t="s">
         <v>19</v>
       </c>
       <c r="B182" s="175" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D182" s="176"/>
       <c r="E182" s="176"/>
@@ -35081,12 +35080,12 @@
       <c r="G182" s="93"/>
       <c r="H182" s="94"/>
     </row>
-    <row r="183" spans="1:11" s="205" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" s="205" customFormat="1" ht="18" customHeight="1">
       <c r="A183" s="174">
         <v>2</v>
       </c>
       <c r="B183" s="210" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C183" s="210"/>
       <c r="D183" s="210"/>
@@ -35098,7 +35097,7 @@
       <c r="J183" s="210"/>
       <c r="K183" s="210"/>
     </row>
-    <row r="184" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="3" customHeight="1">
       <c r="B184" s="177"/>
       <c r="C184" s="177"/>
       <c r="D184" s="177"/>
@@ -35110,12 +35109,12 @@
       <c r="J184" s="177"/>
       <c r="K184" s="177"/>
     </row>
-    <row r="185" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A185" s="92" t="s">
         <v>19</v>
       </c>
       <c r="B185" s="175" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D185" s="176"/>
       <c r="E185" s="176"/>
@@ -35123,12 +35122,12 @@
       <c r="G185" s="93"/>
       <c r="H185" s="94"/>
     </row>
-    <row r="186" spans="1:11" s="205" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" s="205" customFormat="1" ht="18" customHeight="1">
       <c r="A186" s="174">
         <v>2</v>
       </c>
       <c r="B186" s="210" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C186" s="210"/>
       <c r="D186" s="210"/>
@@ -35140,7 +35139,7 @@
       <c r="J186" s="210"/>
       <c r="K186" s="210"/>
     </row>
-    <row r="187" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="3" customHeight="1">
       <c r="A187" s="207"/>
       <c r="B187" s="207"/>
       <c r="C187" s="207"/>
@@ -35153,7 +35152,7 @@
       <c r="J187" s="207"/>
       <c r="K187" s="206"/>
     </row>
-    <row r="188" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="A188" s="92"/>
       <c r="B188" s="175"/>
       <c r="D188" s="176"/>
@@ -35162,7 +35161,7 @@
       <c r="G188" s="93"/>
       <c r="H188" s="94"/>
     </row>
-    <row r="189" spans="1:11" s="205" customFormat="1" ht="20.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" s="205" customFormat="1" ht="20.7" hidden="1">
       <c r="A189" s="174"/>
       <c r="B189" s="210"/>
       <c r="C189" s="210"/>
@@ -35175,13 +35174,13 @@
       <c r="J189" s="210"/>
       <c r="K189" s="210"/>
     </row>
-    <row r="190" spans="1:11" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="3" hidden="1" customHeight="1">
       <c r="B190" s="71"/>
       <c r="D190" s="95"/>
       <c r="E190" s="59"/>
       <c r="F190" s="71"/>
     </row>
-    <row r="191" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="A191" s="92"/>
       <c r="B191" s="175"/>
       <c r="D191" s="176"/>
@@ -35190,7 +35189,7 @@
       <c r="G191" s="93"/>
       <c r="H191" s="94"/>
     </row>
-    <row r="192" spans="1:11" s="205" customFormat="1" ht="20.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" s="205" customFormat="1" ht="20.7" hidden="1">
       <c r="A192" s="174"/>
       <c r="B192" s="210"/>
       <c r="C192" s="210"/>
@@ -35203,7 +35202,7 @@
       <c r="J192" s="210"/>
       <c r="K192" s="210"/>
     </row>
-    <row r="194" spans="2:12" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" s="9" customFormat="1" ht="16.3">
       <c r="B194" s="27" t="s">
         <v>20</v>
       </c>
@@ -35218,9 +35217,9 @@
       <c r="K194" s="96"/>
       <c r="L194" s="96"/>
     </row>
-    <row r="195" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="2:12" ht="26.3" customHeight="1"/>
+    <row r="196" spans="2:12" ht="26.3" customHeight="1"/>
+    <row r="197" spans="2:12" ht="41.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="G12:H12"/>
@@ -35258,7 +35257,6 @@
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"標楷體,粗體"&amp;16下午4時15分收盤選擇權契約保證金狀況表&amp;R
 </oddHeader>
-    <oddFooter>&amp;R&amp;"微軟正黑體,標準"&amp;10&amp;F</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="128" min="1" max="10" man="1"/>
@@ -35272,34 +35270,33 @@
   <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="T1" sqref="T1:T1048576"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1:T1048576"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="119" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="119" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="119" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="119" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="119" customWidth="1"/>
-    <col min="6" max="17" width="10.25" style="119" customWidth="1"/>
-    <col min="18" max="19" width="11.875" style="119" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="119" customWidth="1"/>
-    <col min="21" max="23" width="10.5" style="137" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="137" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="119" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="119" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="119" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="119" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="119" customWidth="1"/>
+    <col min="6" max="17" width="10.21875" style="119" customWidth="1"/>
+    <col min="18" max="19" width="11.88671875" style="119" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" style="119" customWidth="1"/>
+    <col min="21" max="23" width="10.44140625" style="137" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="137" customWidth="1"/>
     <col min="25" max="27" width="11" style="138" customWidth="1"/>
-    <col min="28" max="31" width="11.125" style="137" customWidth="1"/>
-    <col min="32" max="33" width="9.375" style="139" customWidth="1"/>
-    <col min="34" max="34" width="11.125" style="139" customWidth="1"/>
-    <col min="35" max="37" width="11.125" style="140" customWidth="1"/>
-    <col min="38" max="16384" width="8.875" style="119"/>
+    <col min="28" max="31" width="11.109375" style="137" customWidth="1"/>
+    <col min="32" max="33" width="9.33203125" style="139" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" style="139" customWidth="1"/>
+    <col min="35" max="37" width="11.109375" style="140" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="42.75" customHeight="1">
       <c r="A1" s="198"/>
       <c r="B1" s="118"/>
       <c r="U1" s="220" t="s">
@@ -35324,7 +35321,7 @@
       <c r="AJ1" s="220"/>
       <c r="AK1" s="220"/>
     </row>
-    <row r="2" spans="1:37" ht="78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="73.25">
       <c r="A2" s="158" t="s">
         <v>71</v>
       </c>
@@ -35437,7 +35434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="18" customHeight="1">
       <c r="A3" s="120"/>
       <c r="B3" s="120"/>
       <c r="C3" s="128"/>
@@ -35476,7 +35473,7 @@
       <c r="AJ3" s="136"/>
       <c r="AK3" s="136"/>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="18" customHeight="1">
       <c r="A4" s="120"/>
       <c r="B4" s="120"/>
       <c r="C4" s="202"/>
@@ -35515,7 +35512,7 @@
       <c r="AJ4" s="136"/>
       <c r="AK4" s="136"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="18" customHeight="1">
       <c r="A5" s="120"/>
       <c r="B5" s="120"/>
       <c r="C5" s="202"/>
@@ -35554,7 +35551,7 @@
       <c r="AJ5" s="136"/>
       <c r="AK5" s="136"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="18" customHeight="1">
       <c r="A6" s="120"/>
       <c r="B6" s="120"/>
       <c r="C6" s="202"/>
@@ -35593,7 +35590,7 @@
       <c r="AJ6" s="136"/>
       <c r="AK6" s="136"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="18" customHeight="1">
       <c r="A7" s="120"/>
       <c r="B7" s="120"/>
       <c r="C7" s="202"/>
@@ -35632,7 +35629,7 @@
       <c r="AJ7" s="136"/>
       <c r="AK7" s="136"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="18" customHeight="1">
       <c r="A8" s="120"/>
       <c r="B8" s="120"/>
       <c r="C8" s="202"/>
@@ -35671,7 +35668,7 @@
       <c r="AJ8" s="136"/>
       <c r="AK8" s="136"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="18" customHeight="1">
       <c r="A9" s="120"/>
       <c r="B9" s="120"/>
       <c r="C9" s="201"/>
@@ -35710,7 +35707,7 @@
       <c r="AJ9" s="136"/>
       <c r="AK9" s="136"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="18" customHeight="1">
       <c r="A10" s="120"/>
       <c r="B10" s="120"/>
       <c r="C10" s="128"/>
@@ -35749,7 +35746,7 @@
       <c r="AJ10" s="136"/>
       <c r="AK10" s="136"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="18" customHeight="1">
       <c r="A11" s="120"/>
       <c r="B11" s="120"/>
       <c r="C11" s="128"/>
@@ -35788,7 +35785,7 @@
       <c r="AJ11" s="136"/>
       <c r="AK11" s="136"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="18" customHeight="1">
       <c r="A12" s="120"/>
       <c r="B12" s="120"/>
       <c r="C12" s="128"/>
@@ -35827,7 +35824,7 @@
       <c r="AJ12" s="136"/>
       <c r="AK12" s="136"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="18" customHeight="1">
       <c r="A13" s="120"/>
       <c r="B13" s="120"/>
       <c r="C13" s="128"/>
@@ -35866,7 +35863,7 @@
       <c r="AJ13" s="136"/>
       <c r="AK13" s="136"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="18" customHeight="1">
       <c r="A14" s="120"/>
       <c r="B14" s="120"/>
       <c r="C14" s="128"/>
@@ -35905,7 +35902,7 @@
       <c r="AJ14" s="136"/>
       <c r="AK14" s="136"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="18" customHeight="1">
       <c r="A15" s="120"/>
       <c r="B15" s="120"/>
       <c r="C15" s="128"/>
@@ -35944,7 +35941,7 @@
       <c r="AJ15" s="136"/>
       <c r="AK15" s="136"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="18" customHeight="1">
       <c r="A16" s="120"/>
       <c r="B16" s="120"/>
       <c r="C16" s="128"/>
@@ -35983,7 +35980,7 @@
       <c r="AJ16" s="136"/>
       <c r="AK16" s="136"/>
     </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="18" customHeight="1">
       <c r="A17" s="120"/>
       <c r="B17" s="120"/>
       <c r="C17" s="128"/>
@@ -36022,7 +36019,7 @@
       <c r="AJ17" s="136"/>
       <c r="AK17" s="136"/>
     </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="18" customHeight="1">
       <c r="A18" s="120"/>
       <c r="B18" s="120"/>
       <c r="C18" s="128"/>
@@ -36061,7 +36058,7 @@
       <c r="AJ18" s="136"/>
       <c r="AK18" s="136"/>
     </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="18" customHeight="1">
       <c r="A19" s="120"/>
       <c r="B19" s="120"/>
       <c r="C19" s="128"/>
@@ -36100,7 +36097,7 @@
       <c r="AJ19" s="136"/>
       <c r="AK19" s="136"/>
     </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="18" customHeight="1">
       <c r="A20" s="120"/>
       <c r="B20" s="120"/>
       <c r="C20" s="128"/>
@@ -36139,7 +36136,7 @@
       <c r="AJ20" s="136"/>
       <c r="AK20" s="136"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="18" customHeight="1">
       <c r="A21" s="120"/>
       <c r="B21" s="120"/>
       <c r="C21" s="128"/>
@@ -36178,7 +36175,7 @@
       <c r="AJ21" s="136"/>
       <c r="AK21" s="136"/>
     </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="18" customHeight="1">
       <c r="A22" s="120"/>
       <c r="B22" s="120"/>
       <c r="C22" s="128"/>
@@ -36217,7 +36214,7 @@
       <c r="AJ22" s="136"/>
       <c r="AK22" s="136"/>
     </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="18" customHeight="1">
       <c r="A23" s="120"/>
       <c r="B23" s="120"/>
       <c r="C23" s="128"/>
@@ -36256,7 +36253,7 @@
       <c r="AJ23" s="136"/>
       <c r="AK23" s="136"/>
     </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="18" customHeight="1">
       <c r="A24" s="120"/>
       <c r="B24" s="120"/>
       <c r="C24" s="128"/>
@@ -36295,7 +36292,7 @@
       <c r="AJ24" s="136"/>
       <c r="AK24" s="136"/>
     </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="18" customHeight="1">
       <c r="A25" s="120"/>
       <c r="B25" s="120"/>
       <c r="C25" s="128"/>
@@ -36334,7 +36331,7 @@
       <c r="AJ25" s="136"/>
       <c r="AK25" s="136"/>
     </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="18" customHeight="1">
       <c r="A26" s="120"/>
       <c r="B26" s="120"/>
       <c r="C26" s="128"/>
@@ -36373,7 +36370,7 @@
       <c r="AJ26" s="136"/>
       <c r="AK26" s="136"/>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="18" customHeight="1">
       <c r="A27" s="120"/>
       <c r="B27" s="120"/>
       <c r="C27" s="128"/>
@@ -36412,7 +36409,7 @@
       <c r="AJ27" s="136"/>
       <c r="AK27" s="136"/>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="18" customHeight="1">
       <c r="A28" s="120"/>
       <c r="B28" s="120"/>
       <c r="C28" s="128"/>
@@ -36451,7 +36448,7 @@
       <c r="AJ28" s="136"/>
       <c r="AK28" s="136"/>
     </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="18" customHeight="1">
       <c r="A29" s="120"/>
       <c r="B29" s="120"/>
       <c r="C29" s="128"/>
@@ -36490,7 +36487,7 @@
       <c r="AJ29" s="136"/>
       <c r="AK29" s="136"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="18" customHeight="1">
       <c r="A30" s="120"/>
       <c r="B30" s="120"/>
       <c r="C30" s="128"/>
@@ -36529,10 +36526,10 @@
       <c r="AJ30" s="136"/>
       <c r="AK30" s="136"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21">
       <c r="B33" s="152"/>
     </row>
-    <row r="34" spans="2:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21">
       <c r="U34" s="151" t="s">
         <v>40</v>
       </c>
@@ -36546,7 +36543,7 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;R&amp;F</oddFooter>
+    <oddFooter>&amp;R&amp;F&amp;A</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="29" man="1"/>
@@ -36558,26 +36555,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="T1" sqref="T1:T1048576"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1:T1048576"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="119" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="119" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="119" customWidth="1"/>
-    <col min="16" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="119" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="119" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="119" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="119" customWidth="1"/>
+    <col min="16" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" style="119" customWidth="1"/>
     <col min="21" max="21" width="11" style="144" customWidth="1"/>
     <col min="22" max="24" width="11" customWidth="1"/>
     <col min="25" max="27" width="11" style="145" customWidth="1"/>
@@ -36587,11 +36583,11 @@
     <col min="35" max="37" width="11" style="146" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="119" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="119" customFormat="1" ht="41.95" customHeight="1">
       <c r="A1" s="199"/>
       <c r="B1" s="118"/>
       <c r="U1" s="221" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="V1" s="220"/>
       <c r="W1" s="220"/>
@@ -36600,7 +36596,7 @@
       <c r="Z1" s="220"/>
       <c r="AA1" s="220"/>
       <c r="AB1" s="222" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="AC1" s="223"/>
       <c r="AD1" s="223"/>
@@ -36612,7 +36608,7 @@
       <c r="AJ1" s="223"/>
       <c r="AK1" s="224"/>
     </row>
-    <row r="2" spans="1:37" s="119" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="119" customFormat="1" ht="73.25">
       <c r="A2" s="158" t="s">
         <v>104</v>
       </c>
@@ -36725,7 +36721,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="120"/>
       <c r="B3" s="120"/>
       <c r="C3" s="202"/>
@@ -36764,7 +36760,7 @@
       <c r="AJ3" s="136"/>
       <c r="AK3" s="136"/>
     </row>
-    <row r="4" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="120"/>
       <c r="B4" s="120"/>
       <c r="C4" s="202"/>
@@ -36803,10 +36799,10 @@
       <c r="AJ4" s="136"/>
       <c r="AK4" s="136"/>
     </row>
-    <row r="5" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="120"/>
       <c r="B5" s="120"/>
-      <c r="C5" s="128"/>
+      <c r="C5" s="202"/>
       <c r="D5" s="124"/>
       <c r="E5" s="124"/>
       <c r="F5" s="129"/>
@@ -36842,10 +36838,10 @@
       <c r="AJ5" s="136"/>
       <c r="AK5" s="136"/>
     </row>
-    <row r="6" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="120"/>
       <c r="B6" s="120"/>
-      <c r="C6" s="128"/>
+      <c r="C6" s="202"/>
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="129"/>
@@ -36881,7 +36877,7 @@
       <c r="AJ6" s="136"/>
       <c r="AK6" s="136"/>
     </row>
-    <row r="7" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="120"/>
       <c r="B7" s="120"/>
       <c r="C7" s="128"/>
@@ -36920,7 +36916,7 @@
       <c r="AJ7" s="136"/>
       <c r="AK7" s="136"/>
     </row>
-    <row r="8" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="120"/>
       <c r="B8" s="120"/>
       <c r="C8" s="128"/>
@@ -36959,7 +36955,7 @@
       <c r="AJ8" s="136"/>
       <c r="AK8" s="136"/>
     </row>
-    <row r="9" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="120"/>
       <c r="B9" s="120"/>
       <c r="C9" s="128"/>
@@ -36998,7 +36994,7 @@
       <c r="AJ9" s="136"/>
       <c r="AK9" s="136"/>
     </row>
-    <row r="10" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="120"/>
       <c r="B10" s="120"/>
       <c r="C10" s="128"/>
@@ -37037,7 +37033,7 @@
       <c r="AJ10" s="136"/>
       <c r="AK10" s="136"/>
     </row>
-    <row r="11" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="120"/>
       <c r="B11" s="120"/>
       <c r="C11" s="128"/>
@@ -37076,7 +37072,7 @@
       <c r="AJ11" s="136"/>
       <c r="AK11" s="136"/>
     </row>
-    <row r="12" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="120"/>
       <c r="B12" s="120"/>
       <c r="C12" s="128"/>
@@ -37115,7 +37111,7 @@
       <c r="AJ12" s="136"/>
       <c r="AK12" s="136"/>
     </row>
-    <row r="13" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="120"/>
       <c r="B13" s="120"/>
       <c r="C13" s="128"/>
@@ -37154,7 +37150,7 @@
       <c r="AJ13" s="136"/>
       <c r="AK13" s="136"/>
     </row>
-    <row r="14" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="120"/>
       <c r="B14" s="120"/>
       <c r="C14" s="128"/>
@@ -37193,7 +37189,7 @@
       <c r="AJ14" s="136"/>
       <c r="AK14" s="136"/>
     </row>
-    <row r="15" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="120"/>
       <c r="B15" s="120"/>
       <c r="C15" s="128"/>
@@ -37232,7 +37228,7 @@
       <c r="AJ15" s="136"/>
       <c r="AK15" s="136"/>
     </row>
-    <row r="16" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="120"/>
       <c r="B16" s="120"/>
       <c r="C16" s="128"/>
@@ -37271,7 +37267,7 @@
       <c r="AJ16" s="136"/>
       <c r="AK16" s="136"/>
     </row>
-    <row r="17" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="120"/>
       <c r="B17" s="120"/>
       <c r="C17" s="128"/>
@@ -37310,7 +37306,7 @@
       <c r="AJ17" s="136"/>
       <c r="AK17" s="136"/>
     </row>
-    <row r="18" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="120"/>
       <c r="B18" s="120"/>
       <c r="C18" s="128"/>
@@ -37349,7 +37345,7 @@
       <c r="AJ18" s="136"/>
       <c r="AK18" s="136"/>
     </row>
-    <row r="19" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="120"/>
       <c r="B19" s="120"/>
       <c r="C19" s="128"/>
@@ -37388,7 +37384,7 @@
       <c r="AJ19" s="136"/>
       <c r="AK19" s="136"/>
     </row>
-    <row r="20" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="120"/>
       <c r="B20" s="120"/>
       <c r="C20" s="128"/>
@@ -37427,7 +37423,7 @@
       <c r="AJ20" s="136"/>
       <c r="AK20" s="136"/>
     </row>
-    <row r="21" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="120"/>
       <c r="B21" s="120"/>
       <c r="C21" s="128"/>
@@ -37466,7 +37462,7 @@
       <c r="AJ21" s="136"/>
       <c r="AK21" s="136"/>
     </row>
-    <row r="22" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="120"/>
       <c r="B22" s="120"/>
       <c r="C22" s="128"/>
@@ -37505,7 +37501,7 @@
       <c r="AJ22" s="136"/>
       <c r="AK22" s="136"/>
     </row>
-    <row r="23" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="120"/>
       <c r="B23" s="120"/>
       <c r="C23" s="128"/>
@@ -37544,7 +37540,7 @@
       <c r="AJ23" s="136"/>
       <c r="AK23" s="136"/>
     </row>
-    <row r="24" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="120"/>
       <c r="B24" s="120"/>
       <c r="C24" s="128"/>
@@ -37583,7 +37579,7 @@
       <c r="AJ24" s="136"/>
       <c r="AK24" s="136"/>
     </row>
-    <row r="25" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="120"/>
       <c r="B25" s="120"/>
       <c r="C25" s="128"/>
@@ -37622,7 +37618,7 @@
       <c r="AJ25" s="136"/>
       <c r="AK25" s="136"/>
     </row>
-    <row r="26" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="120"/>
       <c r="B26" s="120"/>
       <c r="C26" s="128"/>
@@ -37661,7 +37657,7 @@
       <c r="AJ26" s="136"/>
       <c r="AK26" s="136"/>
     </row>
-    <row r="27" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="120"/>
       <c r="B27" s="120"/>
       <c r="C27" s="128"/>
@@ -37700,7 +37696,7 @@
       <c r="AJ27" s="136"/>
       <c r="AK27" s="136"/>
     </row>
-    <row r="28" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="120"/>
       <c r="B28" s="120"/>
       <c r="C28" s="128"/>
@@ -37739,7 +37735,7 @@
       <c r="AJ28" s="136"/>
       <c r="AK28" s="136"/>
     </row>
-    <row r="29" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="120"/>
       <c r="B29" s="120"/>
       <c r="C29" s="128"/>
@@ -37778,7 +37774,7 @@
       <c r="AJ29" s="136"/>
       <c r="AK29" s="136"/>
     </row>
-    <row r="30" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="120"/>
       <c r="B30" s="120"/>
       <c r="C30" s="128"/>
@@ -37817,10 +37813,10 @@
       <c r="AJ30" s="136"/>
       <c r="AK30" s="136"/>
     </row>
-    <row r="33" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33" s="151"/>
     </row>
-    <row r="34" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="U34" s="151" t="s">
         <v>73</v>
       </c>
@@ -37834,7 +37830,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;R&amp;"微軟正黑體,標準"&amp;10&amp;F</oddFooter>
+    <oddFooter>&amp;R&amp;"微軟正黑體,標準"&amp;10&amp;F&amp;A</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="20" max="29" man="1"/>

--- a/PhoenixCI/Excel_Template/40012.xlsx
+++ b/PhoenixCI/Excel_Template/40012.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3193" windowHeight="7062" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3195" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future " sheetId="12" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="160">
   <si>
     <r>
       <t xml:space="preserve">      </t>
@@ -807,23 +807,23 @@
   </si>
   <si>
     <t>一、</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>現行收取保證金金額</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>本日結算保證金計算(結算保證金 = 期貨契約價格 × 契約規模  × 風險價格係數)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>XAF</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>XBF</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1184,11 +1184,11 @@
       </rPr>
       <t>原始保證金</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>達調整標準者以網底顯示。</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1220,7 +1220,7 @@
       </rPr>
       <t>原保占比</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1252,7 +1252,7 @@
       </rPr>
       <t>原保占比</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1284,7 +1284,7 @@
       </rPr>
       <t>原保占比</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1316,7 +1316,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1348,7 +1348,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1380,7 +1380,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1402,7 +1402,7 @@
       </rPr>
       <t>MaxVol</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1424,7 +1424,7 @@
       </rPr>
       <t>EWMA</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1446,7 +1446,7 @@
       </rPr>
       <t>SMA</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1459,7 +1459,7 @@
       </rPr>
       <t>現行</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1491,7 +1491,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1523,7 +1523,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1555,7 +1555,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>是否達調整標準</t>
@@ -1801,11 +1801,11 @@
   </si>
   <si>
     <t>中文簡稱</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商品代號</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1818,11 +1818,11 @@
       </rPr>
       <t>結算保證金</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>達調整標準者以網底顯示。</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1854,7 +1854,7 @@
       </rPr>
       <t>原保占比</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1886,7 +1886,7 @@
       </rPr>
       <t>原保占比</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1918,7 +1918,7 @@
       </rPr>
       <t>原保占比</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1950,7 +1950,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1982,7 +1982,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2014,7 +2014,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2036,7 +2036,7 @@
       </rPr>
       <t>MaxVol</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2058,7 +2058,7 @@
       </rPr>
       <t>EWMA</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2080,7 +2080,7 @@
       </rPr>
       <t>SMA</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2093,7 +2093,7 @@
       </rPr>
       <t>現行</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2125,7 +2125,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2157,7 +2157,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2189,7 +2189,7 @@
       </rPr>
       <t>變動比率</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>是否達調整標準</t>
@@ -2435,11 +2435,11 @@
   </si>
   <si>
     <t>中文簡稱</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商品代號</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>實際風險價格係數</t>
@@ -3126,76 +3126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>資料日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2014</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
     <t>資料日期：2014年11月24日</t>
   </si>
   <si>
@@ -3345,7 +3275,7 @@
       </rPr>
       <t>日</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3898,7 +3828,7 @@
       </rPr>
       <t>值）</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3986,7 +3916,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4136,7 +4066,7 @@
       </rPr>
       <t>定盤價計算。</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4539,7 +4469,7 @@
       </rPr>
       <t>得調整標準，且進位後金額改變。</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4564,7 +4494,7 @@
       </rPr>
       <t>得調整標準，或雖達得調整標準但進位後金額不變。</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4608,7 +4538,7 @@
       </rPr>
       <t>得調整標準，且進位後金額改變。</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4633,7 +4563,7 @@
       </rPr>
       <t>得調整標準，且進位後金額改變。</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4655,15 +4585,15 @@
       </rPr>
       <t>.以SMA或MAX計算保證金變動幅度已達 10%得調整標準，且進位後金額改變。</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>結算保證金A值/B值</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>原始保證金A值/B值</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4680,7 +4610,7 @@
     <numFmt numFmtId="182" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="183" formatCode="#,##0.0000_ "/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4823,13 +4753,6 @@
       <color indexed="10"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="細明體"/>
-      <family val="3"/>
       <charset val="136"/>
     </font>
     <font>
@@ -5128,7 +5051,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5256,7 +5179,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -5299,7 +5222,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5311,7 +5234,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -5333,10 +5256,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="32" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5363,10 +5286,10 @@
     <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -5394,38 +5317,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -5435,92 +5358,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="42" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="42" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -5532,58 +5455,58 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="50" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="49" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="45" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="44" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="50" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="49" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="45" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="50" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="49" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="41" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="40" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5592,84 +5515,84 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="29" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="41" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="40" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="41" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="40" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="40" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="183" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5678,65 +5601,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="42" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5745,19 +5668,19 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6390,24 +6313,22 @@
   </sheetPr>
   <dimension ref="A1:XFD115"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A82" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108:J108"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="9" customWidth="1"/>
-    <col min="3" max="7" width="19.77734375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="9" customWidth="1"/>
+    <col min="3" max="7" width="19.75" style="9" customWidth="1"/>
     <col min="8" max="8" width="21" style="30" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="30" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="30" customWidth="1"/>
     <col min="11" max="11" width="11" style="30" customWidth="1"/>
-    <col min="12" max="13" width="9.77734375" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.75" style="30" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="30"/>
     <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="17.55">
+    <row r="1" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="169"/>
       <c r="B1" s="169"/>
       <c r="C1" s="149"/>
@@ -6417,7 +6338,7 @@
       <c r="G1" s="149"/>
       <c r="H1" s="149"/>
       <c r="I1" s="209" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J1" s="209"/>
       <c r="K1" s="209"/>
@@ -22795,7 +22716,7 @@
       <c r="XFC1" s="209"/>
       <c r="XFD1" s="209"/>
     </row>
-    <row r="2" spans="1:16384" s="4" customFormat="1" ht="43.85" customHeight="1">
+    <row r="2" spans="1:16384" s="4" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="111" t="s">
         <v>32</v>
       </c>
@@ -22815,7 +22736,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="1:16384" s="6" customFormat="1" ht="36.35">
+    <row r="3" spans="1:16384" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
@@ -22830,13 +22751,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>142</v>
-      </c>
       <c r="H3" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
@@ -22846,7 +22767,7 @@
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
     </row>
-    <row r="4" spans="1:16384" ht="30.05" customHeight="1">
+    <row r="4" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -22862,7 +22783,7 @@
       <c r="L4" s="35"/>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:16384" ht="30.05" customHeight="1">
+    <row r="5" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -22878,7 +22799,7 @@
       <c r="L5" s="35"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:16384" ht="30.05" customHeight="1">
+    <row r="6" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
@@ -22894,7 +22815,7 @@
       <c r="L6" s="35"/>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:16384" ht="30.05" customHeight="1">
+    <row r="7" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
@@ -22910,7 +22831,7 @@
       <c r="L7" s="35"/>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:16384" ht="30.05" customHeight="1">
+    <row r="8" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="116" t="s">
         <v>36</v>
       </c>
@@ -22926,7 +22847,7 @@
       <c r="L8" s="35"/>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:16384" ht="30.05" customHeight="1">
+    <row r="9" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="116" t="s">
         <v>35</v>
       </c>
@@ -22942,7 +22863,7 @@
       <c r="L9" s="35"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:16384" ht="30.05" customHeight="1">
+    <row r="10" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="115" t="s">
         <v>11</v>
       </c>
@@ -22958,7 +22879,7 @@
       <c r="L10" s="35"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:16384" ht="30.05" customHeight="1">
+    <row r="11" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
@@ -22974,7 +22895,7 @@
       <c r="L11" s="35"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:16384" ht="30.05" hidden="1" customHeight="1">
+    <row r="12" spans="1:16384" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
       <c r="D12" s="28"/>
@@ -22988,7 +22909,7 @@
       <c r="L12" s="35"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:16384" ht="30.05" hidden="1" customHeight="1">
+    <row r="13" spans="1:16384" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="28"/>
@@ -23002,7 +22923,7 @@
       <c r="L13" s="35"/>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:16384" ht="30.05" hidden="1" customHeight="1">
+    <row r="14" spans="1:16384" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="28"/>
@@ -23016,7 +22937,7 @@
       <c r="L14" s="35"/>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:16384" ht="30.05" hidden="1" customHeight="1">
+    <row r="15" spans="1:16384" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="28"/>
@@ -23030,7 +22951,7 @@
       <c r="L15" s="35"/>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:16384" ht="30.05" customHeight="1">
+    <row r="16" spans="1:16384" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
@@ -23046,7 +22967,7 @@
       <c r="L16" s="35"/>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="168" t="s">
         <v>109</v>
       </c>
@@ -23057,7 +22978,7 @@
       <c r="G17" s="168"/>
       <c r="H17" s="168"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" s="114" t="s">
         <v>110</v>
       </c>
@@ -23067,7 +22988,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:14" s="14" customFormat="1" ht="17.55">
+    <row r="19" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="114" t="s">
         <v>111</v>
       </c>
@@ -23084,7 +23005,7 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="20" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="48"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -23099,7 +23020,7 @@
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
     </row>
-    <row r="21" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="21" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -23114,7 +23035,7 @@
       <c r="M21" s="36"/>
       <c r="N21" s="36"/>
     </row>
-    <row r="22" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="22" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="48"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -23129,7 +23050,7 @@
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
     </row>
-    <row r="23" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="23" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="48"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -23144,7 +23065,7 @@
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="24" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -23159,7 +23080,7 @@
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
     </row>
-    <row r="25" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="25" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="48"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -23174,7 +23095,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
     </row>
-    <row r="26" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="26" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="48"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -23189,7 +23110,7 @@
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
     </row>
-    <row r="27" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="27" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="48"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -23204,7 +23125,7 @@
       <c r="M27" s="36"/>
       <c r="N27" s="36"/>
     </row>
-    <row r="28" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="28" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -23219,7 +23140,7 @@
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
     </row>
-    <row r="29" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="29" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -23234,7 +23155,7 @@
       <c r="M29" s="36"/>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="30" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -23249,7 +23170,7 @@
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
     </row>
-    <row r="31" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="31" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="48"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -23264,7 +23185,7 @@
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:14" s="19" customFormat="1" ht="43.55" customHeight="1">
+    <row r="32" spans="1:14" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -23284,7 +23205,7 @@
       <c r="M32" s="38"/>
       <c r="N32" s="38"/>
     </row>
-    <row r="33" spans="1:15" ht="26.3" hidden="1" customHeight="1">
+    <row r="33" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="49" t="s">
         <v>8</v>
       </c>
@@ -23295,7 +23216,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:15" ht="26.3" hidden="1" customHeight="1">
+    <row r="34" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="49" t="s">
         <v>9</v>
       </c>
@@ -23306,7 +23227,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="39"/>
     </row>
-    <row r="35" spans="1:15" ht="26.3" hidden="1" customHeight="1">
+    <row r="35" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="49" t="s">
         <v>12</v>
       </c>
@@ -23317,7 +23238,7 @@
       <c r="G35" s="18"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:15" ht="26.3" hidden="1" customHeight="1">
+    <row r="36" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="97" t="s">
         <v>27</v>
       </c>
@@ -23328,9 +23249,9 @@
       <c r="G36" s="18"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:15" ht="26.3" customHeight="1">
+    <row r="37" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="167" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
@@ -23339,15 +23260,15 @@
       <c r="G37" s="18"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:15" ht="41.95" customHeight="1">
+    <row r="38" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="160" t="s">
         <v>107</v>
@@ -23359,17 +23280,17 @@
         <v>106</v>
       </c>
       <c r="H38" s="161" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I38" s="161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J38" s="161" t="s">
         <v>108</v>
       </c>
       <c r="O38" s="30"/>
     </row>
-    <row r="39" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
+    <row r="39" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
         <v>1</v>
@@ -23388,7 +23309,7 @@
       <c r="N39" s="40"/>
       <c r="O39" s="40"/>
     </row>
-    <row r="40" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
+    <row r="40" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
         <v>2</v>
@@ -23407,7 +23328,7 @@
       <c r="N40" s="40"/>
       <c r="O40" s="40"/>
     </row>
-    <row r="41" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
+    <row r="41" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
         <v>30</v>
@@ -23426,7 +23347,7 @@
       <c r="N41" s="40"/>
       <c r="O41" s="40"/>
     </row>
-    <row r="42" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
+    <row r="42" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="115" t="s">
         <v>31</v>
@@ -23445,7 +23366,7 @@
       <c r="N42" s="40"/>
       <c r="O42" s="40"/>
     </row>
-    <row r="43" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
+    <row r="43" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="116" t="s">
         <v>36</v>
@@ -23464,7 +23385,7 @@
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
     </row>
-    <row r="44" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
+    <row r="44" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="116" t="s">
         <v>35</v>
@@ -23483,7 +23404,7 @@
       <c r="N44" s="40"/>
       <c r="O44" s="40"/>
     </row>
-    <row r="45" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
+    <row r="45" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="115" t="s">
         <v>11</v>
@@ -23502,7 +23423,7 @@
       <c r="N45" s="40"/>
       <c r="O45" s="40"/>
     </row>
-    <row r="46" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
+    <row r="46" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
         <v>25</v>
@@ -23521,7 +23442,7 @@
       <c r="N46" s="40"/>
       <c r="O46" s="40"/>
     </row>
-    <row r="47" spans="1:15" s="22" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="47" spans="1:15" s="22" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="165"/>
@@ -23538,7 +23459,7 @@
       <c r="N47" s="40"/>
       <c r="O47" s="40"/>
     </row>
-    <row r="48" spans="1:15" s="22" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="48" spans="1:15" s="22" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="165"/>
@@ -23555,7 +23476,7 @@
       <c r="N48" s="40"/>
       <c r="O48" s="40"/>
     </row>
-    <row r="49" spans="1:15" s="22" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="49" spans="1:15" s="22" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="165"/>
@@ -23572,7 +23493,7 @@
       <c r="N49" s="40"/>
       <c r="O49" s="40"/>
     </row>
-    <row r="50" spans="1:15" s="22" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="50" spans="1:15" s="22" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="165"/>
@@ -23589,7 +23510,7 @@
       <c r="N50" s="40"/>
       <c r="O50" s="40"/>
     </row>
-    <row r="51" spans="1:15" s="22" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="51" spans="1:15" s="22" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="165"/>
@@ -23606,7 +23527,7 @@
       <c r="N51" s="40"/>
       <c r="O51" s="40"/>
     </row>
-    <row r="52" spans="1:15" s="22" customFormat="1" ht="31.95" customHeight="1">
+    <row r="52" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
         <v>26</v>
@@ -23625,7 +23546,7 @@
       <c r="N52" s="40"/>
       <c r="O52" s="40"/>
     </row>
-    <row r="53" spans="1:15" s="14" customFormat="1" ht="17.55">
+    <row r="53" spans="1:15" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="48"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -23640,7 +23561,7 @@
       <c r="M53" s="36"/>
       <c r="N53" s="36"/>
     </row>
-    <row r="54" spans="1:15" s="14" customFormat="1" ht="17.55">
+    <row r="54" spans="1:15" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="48"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -23655,9 +23576,9 @@
       <c r="M54" s="36"/>
       <c r="N54" s="36"/>
     </row>
-    <row r="55" spans="1:15" s="14" customFormat="1" ht="22.55">
+    <row r="55" spans="1:15" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B55" s="167" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="15"/>
       <c r="E55" s="16"/>
@@ -23671,15 +23592,15 @@
       <c r="M55" s="36"/>
       <c r="N55" s="36"/>
     </row>
-    <row r="56" spans="1:15" s="14" customFormat="1" ht="44.45" customHeight="1">
+    <row r="56" spans="1:15" s="14" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="148" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E56" s="160" t="s">
         <v>107</v>
@@ -23691,10 +23612,10 @@
         <v>106</v>
       </c>
       <c r="H56" s="161" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I56" s="161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J56" s="161" t="s">
         <v>108</v>
@@ -23704,7 +23625,7 @@
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
     </row>
-    <row r="57" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="57" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>1</v>
       </c>
@@ -23721,7 +23642,7 @@
       <c r="M57" s="36"/>
       <c r="N57" s="36"/>
     </row>
-    <row r="58" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="58" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>2</v>
       </c>
@@ -23738,7 +23659,7 @@
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
     </row>
-    <row r="59" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="59" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>30</v>
       </c>
@@ -23755,7 +23676,7 @@
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
     </row>
-    <row r="60" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="60" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="115" t="s">
         <v>31</v>
       </c>
@@ -23772,7 +23693,7 @@
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
     </row>
-    <row r="61" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="61" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="116" t="s">
         <v>36</v>
       </c>
@@ -23789,7 +23710,7 @@
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
     </row>
-    <row r="62" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="62" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="116" t="s">
         <v>35</v>
       </c>
@@ -23806,7 +23727,7 @@
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
     </row>
-    <row r="63" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="63" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="115" t="s">
         <v>11</v>
       </c>
@@ -23823,7 +23744,7 @@
       <c r="M63" s="36"/>
       <c r="N63" s="36"/>
     </row>
-    <row r="64" spans="1:15" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="64" spans="1:15" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>25</v>
       </c>
@@ -23840,7 +23761,7 @@
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
     </row>
-    <row r="65" spans="1:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="65" spans="1:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="165"/>
       <c r="D65" s="20"/>
@@ -23855,7 +23776,7 @@
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
     </row>
-    <row r="66" spans="1:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="66" spans="1:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="165"/>
       <c r="D66" s="20"/>
@@ -23870,7 +23791,7 @@
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
     </row>
-    <row r="67" spans="1:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="67" spans="1:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="165"/>
       <c r="D67" s="20"/>
@@ -23885,7 +23806,7 @@
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
     </row>
-    <row r="68" spans="1:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="68" spans="1:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="165"/>
       <c r="D68" s="20"/>
@@ -23900,7 +23821,7 @@
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
     </row>
-    <row r="69" spans="1:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="69" spans="1:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="165"/>
       <c r="D69" s="20"/>
@@ -23915,7 +23836,7 @@
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
     </row>
-    <row r="70" spans="1:14" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="70" spans="1:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>26</v>
       </c>
@@ -23932,7 +23853,7 @@
       <c r="M70" s="36"/>
       <c r="N70" s="36"/>
     </row>
-    <row r="71" spans="1:14" s="14" customFormat="1" ht="17.55">
+    <row r="71" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="48"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -23947,7 +23868,7 @@
       <c r="M71" s="36"/>
       <c r="N71" s="36"/>
     </row>
-    <row r="72" spans="1:14" s="14" customFormat="1" ht="17.55">
+    <row r="72" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B72" s="48"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -23962,7 +23883,7 @@
       <c r="M72" s="36"/>
       <c r="N72" s="36"/>
     </row>
-    <row r="73" spans="1:14" s="14" customFormat="1" ht="17.55">
+    <row r="73" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B73" s="48"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -23977,7 +23898,7 @@
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
     </row>
-    <row r="74" spans="1:14" s="14" customFormat="1" ht="18.2">
+    <row r="74" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B74" s="48"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -23986,15 +23907,16 @@
       <c r="G74" s="9"/>
       <c r="H74" s="36"/>
       <c r="I74" s="37"/>
-      <c r="J74" s="149" t="s">
-        <v>112</v>
+      <c r="J74" s="149" t="str">
+        <f>I1</f>
+        <v>資料日期：2014年11月24日</v>
       </c>
       <c r="K74" s="37"/>
       <c r="L74" s="37"/>
       <c r="M74" s="36"/>
       <c r="N74" s="36"/>
     </row>
-    <row r="75" spans="1:14" s="14" customFormat="1" ht="17.55">
+    <row r="75" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="169"/>
       <c r="B75" s="48"/>
       <c r="C75" s="9"/>
@@ -24010,7 +23932,7 @@
       <c r="M75" s="36"/>
       <c r="N75" s="36"/>
     </row>
-    <row r="76" spans="1:14" s="14" customFormat="1" ht="17.55">
+    <row r="76" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="169"/>
       <c r="B76" s="48"/>
       <c r="C76" s="9"/>
@@ -24026,7 +23948,7 @@
       <c r="M76" s="36"/>
       <c r="N76" s="36"/>
     </row>
-    <row r="77" spans="1:14" s="14" customFormat="1" ht="17.55">
+    <row r="77" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="169"/>
       <c r="B77" s="48"/>
       <c r="C77" s="9"/>
@@ -24042,7 +23964,7 @@
       <c r="M77" s="36"/>
       <c r="N77" s="36"/>
     </row>
-    <row r="78" spans="1:14" s="14" customFormat="1" ht="17.55">
+    <row r="78" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="169"/>
       <c r="B78" s="48"/>
       <c r="C78" s="9"/>
@@ -24058,7 +23980,7 @@
       <c r="M78" s="36"/>
       <c r="N78" s="36"/>
     </row>
-    <row r="79" spans="1:14" s="14" customFormat="1" ht="17.55">
+    <row r="79" spans="1:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="169"/>
       <c r="B79" s="48"/>
       <c r="C79" s="9"/>
@@ -24074,9 +23996,9 @@
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
     </row>
-    <row r="80" spans="1:14" s="14" customFormat="1" ht="22.55">
+    <row r="80" spans="1:14" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B80" s="167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="15"/>
       <c r="E80" s="16"/>
@@ -24090,15 +24012,15 @@
       <c r="M80" s="36"/>
       <c r="N80" s="36"/>
     </row>
-    <row r="81" spans="2:14" s="14" customFormat="1" ht="44.45" customHeight="1">
+    <row r="81" spans="2:14" s="14" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="148" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D81" s="159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E81" s="160" t="s">
         <v>107</v>
@@ -24110,10 +24032,10 @@
         <v>106</v>
       </c>
       <c r="H81" s="161" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I81" s="161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J81" s="161" t="s">
         <v>108</v>
@@ -24123,7 +24045,7 @@
       <c r="M81" s="36"/>
       <c r="N81" s="36"/>
     </row>
-    <row r="82" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="82" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>1</v>
       </c>
@@ -24140,7 +24062,7 @@
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
     </row>
-    <row r="83" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="83" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>2</v>
       </c>
@@ -24157,7 +24079,7 @@
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
     </row>
-    <row r="84" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="84" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>30</v>
       </c>
@@ -24174,7 +24096,7 @@
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
     </row>
-    <row r="85" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="85" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="115" t="s">
         <v>31</v>
       </c>
@@ -24191,7 +24113,7 @@
       <c r="M85" s="36"/>
       <c r="N85" s="36"/>
     </row>
-    <row r="86" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="86" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="116" t="s">
         <v>36</v>
       </c>
@@ -24208,7 +24130,7 @@
       <c r="M86" s="36"/>
       <c r="N86" s="36"/>
     </row>
-    <row r="87" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="87" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="116" t="s">
         <v>35</v>
       </c>
@@ -24225,7 +24147,7 @@
       <c r="M87" s="36"/>
       <c r="N87" s="36"/>
     </row>
-    <row r="88" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="88" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="115" t="s">
         <v>11</v>
       </c>
@@ -24242,7 +24164,7 @@
       <c r="M88" s="36"/>
       <c r="N88" s="36"/>
     </row>
-    <row r="89" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="89" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>25</v>
       </c>
@@ -24259,7 +24181,7 @@
       <c r="M89" s="36"/>
       <c r="N89" s="36"/>
     </row>
-    <row r="90" spans="2:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="90" spans="2:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="165"/>
       <c r="D90" s="20"/>
@@ -24274,7 +24196,7 @@
       <c r="M90" s="36"/>
       <c r="N90" s="36"/>
     </row>
-    <row r="91" spans="2:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="91" spans="2:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" s="165"/>
       <c r="D91" s="20"/>
@@ -24289,7 +24211,7 @@
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
     </row>
-    <row r="92" spans="2:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="92" spans="2:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" s="165"/>
       <c r="D92" s="20"/>
@@ -24304,7 +24226,7 @@
       <c r="M92" s="36"/>
       <c r="N92" s="36"/>
     </row>
-    <row r="93" spans="2:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="93" spans="2:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="165"/>
       <c r="D93" s="20"/>
@@ -24319,7 +24241,7 @@
       <c r="M93" s="36"/>
       <c r="N93" s="36"/>
     </row>
-    <row r="94" spans="2:14" s="14" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="94" spans="2:14" s="14" customFormat="1" ht="31.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" s="165"/>
       <c r="D94" s="20"/>
@@ -24334,7 +24256,7 @@
       <c r="M94" s="36"/>
       <c r="N94" s="36"/>
     </row>
-    <row r="95" spans="2:14" s="14" customFormat="1" ht="31.95" customHeight="1">
+    <row r="95" spans="2:14" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>26</v>
       </c>
@@ -24351,7 +24273,7 @@
       <c r="M95" s="36"/>
       <c r="N95" s="36"/>
     </row>
-    <row r="96" spans="2:14" s="14" customFormat="1" ht="17.55">
+    <row r="96" spans="2:14" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B96" s="48"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -24366,7 +24288,7 @@
       <c r="M96" s="36"/>
       <c r="N96" s="36"/>
     </row>
-    <row r="97" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="97" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="48"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -24381,7 +24303,7 @@
       <c r="M97" s="36"/>
       <c r="N97" s="36"/>
     </row>
-    <row r="98" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="98" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="48"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -24396,7 +24318,7 @@
       <c r="M98" s="36"/>
       <c r="N98" s="36"/>
     </row>
-    <row r="99" spans="1:14" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="99" spans="1:14" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="48"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -24411,9 +24333,9 @@
       <c r="M99" s="36"/>
       <c r="N99" s="36"/>
     </row>
-    <row r="100" spans="1:14" ht="26.3" customHeight="1">
+    <row r="100" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="50" t="s">
         <v>10</v>
@@ -24425,7 +24347,7 @@
       <c r="G100" s="17"/>
       <c r="H100" s="41"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B101" s="117" t="s">
         <v>37</v>
       </c>
@@ -24434,12 +24356,12 @@
       <c r="F101" s="15"/>
       <c r="H101" s="41"/>
     </row>
-    <row r="102" spans="1:14" s="205" customFormat="1">
+    <row r="102" spans="1:14" s="205" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="204">
         <v>1</v>
       </c>
       <c r="B102" s="208" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="208"/>
       <c r="D102" s="208"/>
@@ -24450,7 +24372,7 @@
       <c r="I102" s="208"/>
       <c r="J102" s="208"/>
     </row>
-    <row r="103" spans="1:14" s="27" customFormat="1">
+    <row r="103" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="15"/>
       <c r="C103" s="24"/>
@@ -24466,7 +24388,7 @@
       <c r="M103" s="30"/>
       <c r="N103" s="30"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B104" s="117" t="s">
         <v>38</v>
       </c>
@@ -24475,12 +24397,12 @@
       <c r="F104" s="15"/>
       <c r="H104" s="41"/>
     </row>
-    <row r="105" spans="1:14" s="205" customFormat="1">
+    <row r="105" spans="1:14" s="205" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="204">
         <v>2</v>
       </c>
       <c r="B105" s="208" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C105" s="208"/>
       <c r="D105" s="208"/>
@@ -24491,13 +24413,13 @@
       <c r="I105" s="208"/>
       <c r="J105" s="208"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="98"/>
       <c r="B106" s="147"/>
       <c r="D106" s="25"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B107" s="117" t="s">
         <v>38</v>
       </c>
@@ -24506,12 +24428,12 @@
       <c r="F107" s="15"/>
       <c r="H107" s="41"/>
     </row>
-    <row r="108" spans="1:14" s="205" customFormat="1">
+    <row r="108" spans="1:14" s="205" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="204">
         <v>3</v>
       </c>
       <c r="B108" s="208" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C108" s="208"/>
       <c r="D108" s="208"/>
@@ -24522,13 +24444,13 @@
       <c r="I108" s="208"/>
       <c r="J108" s="208"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B109" s="15"/>
       <c r="D109" s="25"/>
       <c r="E109" s="4"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B110" s="26" t="s">
         <v>0</v>
       </c>
@@ -24538,10 +24460,10 @@
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
     </row>
-    <row r="112" spans="1:14" hidden="1"/>
-    <row r="113" hidden="1"/>
-    <row r="114" hidden="1"/>
-    <row r="115" hidden="1"/>
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="113" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="114" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="115" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8192">
     <mergeCell ref="XFA1:XFB1"/>
@@ -32737,7 +32659,7 @@
     <mergeCell ref="BM1:BN1"/>
     <mergeCell ref="B102:J102"/>
   </mergeCells>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="1.1023622047244095" bottom="0.35433070866141736" header="0.70866141732283472" footer="0"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -32756,44 +32678,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M197"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B128" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139:D140"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B134" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.109375" style="52" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="52" customWidth="1"/>
+    <col min="1" max="1" width="0.125" style="52" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="52" customWidth="1"/>
     <col min="4" max="4" width="10" style="52" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="52" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="52" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" style="52" customWidth="1"/>
-    <col min="9" max="10" width="9.44140625" style="54" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="52" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="52" customWidth="1"/>
+    <col min="9" max="10" width="9.5" style="54" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="52" customWidth="1"/>
     <col min="12" max="13" width="9" style="52"/>
-    <col min="14" max="14" width="5.21875" style="52" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="52" customWidth="1"/>
     <col min="15" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J3" s="186" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L4" s="173"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I5" s="53"/>
     </row>
-    <row r="7" spans="1:12" s="59" customFormat="1" ht="22.55" customHeight="1">
+    <row r="7" spans="1:12" s="59" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="57"/>
@@ -32803,29 +32725,29 @@
       <c r="I7" s="60"/>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="1:12" s="61" customFormat="1" ht="73.75" customHeight="1">
+    <row r="8" spans="1:12" s="61" customFormat="1" ht="73.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="172" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="218" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="218"/>
       <c r="E8" s="218" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="218"/>
       <c r="G8" s="219" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="219"/>
       <c r="I8" s="62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J8" s="54"/>
       <c r="K8" s="63"/>
     </row>
-    <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1">
+    <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="64" t="s">
         <v>21</v>
       </c>
@@ -32842,7 +32764,7 @@
       <c r="K9" s="107"/>
       <c r="L9" s="107"/>
     </row>
-    <row r="10" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="10" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="64" t="s">
         <v>22</v>
       </c>
@@ -32861,7 +32783,7 @@
       <c r="K10" s="108"/>
       <c r="L10" s="108"/>
     </row>
-    <row r="11" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="11" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="64" t="s">
         <v>23</v>
       </c>
@@ -32878,7 +32800,7 @@
       <c r="K11" s="108"/>
       <c r="L11" s="108"/>
     </row>
-    <row r="12" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="12" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="64" t="s">
         <v>24</v>
       </c>
@@ -32897,7 +32819,7 @@
       <c r="K12" s="108"/>
       <c r="L12" s="108"/>
     </row>
-    <row r="13" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="99" t="s">
         <v>28</v>
       </c>
@@ -32914,7 +32836,7 @@
       <c r="K13" s="108"/>
       <c r="L13" s="108"/>
     </row>
-    <row r="14" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="14" spans="1:12" s="59" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="99" t="s">
         <v>29</v>
       </c>
@@ -32929,9 +32851,9 @@
       <c r="K14" s="108"/>
       <c r="L14" s="108"/>
     </row>
-    <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1">
+    <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="66"/>
@@ -32940,9 +32862,9 @@
       <c r="G15" s="65"/>
       <c r="H15" s="65"/>
     </row>
-    <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1">
+    <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="66"/>
@@ -32951,7 +32873,7 @@
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
     </row>
-    <row r="17" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="17" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="68"/>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
@@ -32962,7 +32884,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="18" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="68"/>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -32973,7 +32895,7 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="19" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="68"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -32984,7 +32906,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="20" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="68"/>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
@@ -32995,7 +32917,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="21" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="68"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
@@ -33006,7 +32928,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="22" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="68"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
@@ -33017,7 +32939,7 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="23" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="68"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
@@ -33028,7 +32950,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="24" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="68"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
@@ -33039,7 +32961,7 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="25" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="68"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
@@ -33050,7 +32972,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="26" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="68"/>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
@@ -33061,7 +32983,7 @@
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="27" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="68"/>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
@@ -33072,7 +32994,7 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="28" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="68"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -33083,7 +33005,7 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="29" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="68"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -33094,7 +33016,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="30" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="68"/>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -33105,7 +33027,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="31" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="68"/>
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
@@ -33116,7 +33038,7 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="32" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="68"/>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
@@ -33127,7 +33049,7 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="33" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="68"/>
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
@@ -33138,7 +33060,7 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="34" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="68"/>
       <c r="C34" s="52"/>
       <c r="D34" s="52"/>
@@ -33149,7 +33071,7 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="35" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="68"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
@@ -33160,7 +33082,7 @@
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="36" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="68"/>
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
@@ -33171,7 +33093,7 @@
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
     </row>
-    <row r="37" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="37" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="68"/>
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
@@ -33182,7 +33104,7 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
     </row>
-    <row r="38" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="38" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="68"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
@@ -33193,7 +33115,7 @@
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
     </row>
-    <row r="39" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="39" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="68"/>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
@@ -33204,7 +33126,7 @@
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
     </row>
-    <row r="40" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="40" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="68"/>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
@@ -33215,7 +33137,7 @@
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
     </row>
-    <row r="41" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="41" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="68"/>
       <c r="C41" s="52"/>
       <c r="D41" s="52"/>
@@ -33226,7 +33148,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
     </row>
-    <row r="42" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="42" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="68"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
@@ -33237,7 +33159,7 @@
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
     </row>
-    <row r="43" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="43" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="68"/>
       <c r="C43" s="52"/>
       <c r="D43" s="52"/>
@@ -33248,7 +33170,7 @@
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
     </row>
-    <row r="44" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="44" spans="1:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
@@ -33259,77 +33181,77 @@
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
     </row>
-    <row r="45" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="45" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" s="70"/>
     </row>
-    <row r="46" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="46" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="71"/>
       <c r="D46" s="65"/>
       <c r="E46" s="72"/>
       <c r="F46" s="73"/>
     </row>
-    <row r="47" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="47" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="71"/>
       <c r="D47" s="65"/>
       <c r="E47" s="72"/>
       <c r="F47" s="73"/>
     </row>
-    <row r="48" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="48" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="71"/>
       <c r="D48" s="65"/>
       <c r="E48" s="72"/>
       <c r="F48" s="73"/>
     </row>
-    <row r="49" spans="2:13" s="59" customFormat="1" ht="75.8" customHeight="1">
+    <row r="49" spans="2:13" s="59" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="172" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="172" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D49" s="172" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="172" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="172" t="s">
-        <v>139</v>
+      <c r="F49" s="172" t="s">
+        <v>148</v>
       </c>
-      <c r="F49" s="172" t="s">
+      <c r="G49" s="172" t="s">
         <v>149</v>
       </c>
-      <c r="G49" s="172" t="s">
+      <c r="H49" s="172" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="172" t="s">
-        <v>151</v>
+      <c r="I49" s="74" t="s">
+        <v>144</v>
       </c>
-      <c r="I49" s="74" t="s">
+      <c r="J49" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="J49" s="178" t="s">
-        <v>146</v>
-      </c>
       <c r="K49" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L49" s="75"/>
       <c r="M49" s="75"/>
     </row>
-    <row r="50" spans="2:13" s="65" customFormat="1" ht="19.75" customHeight="1">
+    <row r="50" spans="2:13" s="65" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="64" t="s">
         <v>21</v>
       </c>
@@ -33347,7 +33269,7 @@
       <c r="L50" s="109"/>
       <c r="M50" s="80"/>
     </row>
-    <row r="51" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="51" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="64" t="s">
         <v>22</v>
       </c>
@@ -33368,7 +33290,7 @@
       <c r="L51" s="109"/>
       <c r="M51" s="80"/>
     </row>
-    <row r="52" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="52" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="64" t="s">
         <v>23</v>
       </c>
@@ -33386,7 +33308,7 @@
       <c r="L52" s="109"/>
       <c r="M52" s="80"/>
     </row>
-    <row r="53" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="53" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="64" t="s">
         <v>24</v>
       </c>
@@ -33407,7 +33329,7 @@
       <c r="L53" s="109"/>
       <c r="M53" s="80"/>
     </row>
-    <row r="54" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="54" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="99" t="s">
         <v>28</v>
       </c>
@@ -33425,7 +33347,7 @@
       <c r="L54" s="109"/>
       <c r="M54" s="80"/>
     </row>
-    <row r="55" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="55" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="99" t="s">
         <v>29</v>
       </c>
@@ -33446,7 +33368,7 @@
       <c r="L55" s="109"/>
       <c r="M55" s="80"/>
     </row>
-    <row r="56" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="56" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="100"/>
       <c r="C56" s="180"/>
       <c r="D56" s="181"/>
@@ -33460,7 +33382,7 @@
       <c r="L56" s="109"/>
       <c r="M56" s="80"/>
     </row>
-    <row r="57" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="57" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="100"/>
       <c r="C57" s="180"/>
       <c r="D57" s="181"/>
@@ -33474,7 +33396,7 @@
       <c r="L57" s="109"/>
       <c r="M57" s="80"/>
     </row>
-    <row r="58" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="58" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="100"/>
       <c r="C58" s="180"/>
       <c r="D58" s="181"/>
@@ -33488,7 +33410,7 @@
       <c r="L58" s="109"/>
       <c r="M58" s="80"/>
     </row>
-    <row r="59" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="59" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="68"/>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
@@ -33499,7 +33421,7 @@
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
     </row>
-    <row r="60" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="60" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="68"/>
       <c r="C60" s="52"/>
       <c r="D60" s="52"/>
@@ -33510,7 +33432,7 @@
       <c r="I60" s="29"/>
       <c r="J60" s="29"/>
     </row>
-    <row r="61" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="61" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="68"/>
       <c r="C61" s="52"/>
       <c r="D61" s="52"/>
@@ -33521,7 +33443,7 @@
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
     </row>
-    <row r="62" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="62" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="68"/>
       <c r="C62" s="52"/>
       <c r="D62" s="52"/>
@@ -33532,7 +33454,7 @@
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
     </row>
-    <row r="63" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="63" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="68"/>
       <c r="C63" s="52"/>
       <c r="D63" s="52"/>
@@ -33543,7 +33465,7 @@
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
     </row>
-    <row r="64" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="64" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="68"/>
       <c r="C64" s="52"/>
       <c r="D64" s="52"/>
@@ -33554,7 +33476,7 @@
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
     </row>
-    <row r="65" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="65" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="68"/>
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
@@ -33565,7 +33487,7 @@
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="66" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="68"/>
       <c r="C66" s="52"/>
       <c r="D66" s="52"/>
@@ -33576,7 +33498,7 @@
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
     </row>
-    <row r="67" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="67" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="68"/>
       <c r="C67" s="52"/>
       <c r="D67" s="52"/>
@@ -33587,7 +33509,7 @@
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="68" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="68"/>
       <c r="C68" s="52"/>
       <c r="D68" s="52"/>
@@ -33598,7 +33520,7 @@
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="69" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="68"/>
       <c r="C69" s="52"/>
       <c r="D69" s="52"/>
@@ -33609,7 +33531,7 @@
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
     </row>
-    <row r="70" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="70" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="68"/>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
@@ -33620,7 +33542,7 @@
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
     </row>
-    <row r="71" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="71" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="68"/>
       <c r="C71" s="52"/>
       <c r="D71" s="52"/>
@@ -33631,7 +33553,7 @@
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
     </row>
-    <row r="72" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="72" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="68"/>
       <c r="C72" s="52"/>
       <c r="D72" s="52"/>
@@ -33642,7 +33564,7 @@
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="73" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="68"/>
       <c r="C73" s="52"/>
       <c r="D73" s="52"/>
@@ -33653,7 +33575,7 @@
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
     </row>
-    <row r="74" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="74" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="68"/>
       <c r="C74" s="52"/>
       <c r="D74" s="52"/>
@@ -33664,7 +33586,7 @@
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
     </row>
-    <row r="75" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="75" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="68"/>
       <c r="C75" s="52"/>
       <c r="D75" s="52"/>
@@ -33675,7 +33597,7 @@
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="76" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="68"/>
       <c r="C76" s="52"/>
       <c r="D76" s="52"/>
@@ -33686,7 +33608,7 @@
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
     </row>
-    <row r="77" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="77" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="68"/>
       <c r="C77" s="52"/>
       <c r="D77" s="52"/>
@@ -33697,7 +33619,7 @@
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="78" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="68"/>
       <c r="C78" s="52"/>
       <c r="D78" s="52"/>
@@ -33708,7 +33630,7 @@
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
     </row>
-    <row r="79" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="79" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="68"/>
       <c r="C79" s="52"/>
       <c r="D79" s="52"/>
@@ -33719,7 +33641,7 @@
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
     </row>
-    <row r="80" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="80" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="68"/>
       <c r="C80" s="52"/>
       <c r="D80" s="52"/>
@@ -33730,7 +33652,7 @@
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
     </row>
-    <row r="81" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="81" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="68"/>
       <c r="C81" s="52"/>
       <c r="D81" s="52"/>
@@ -33741,7 +33663,7 @@
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
     </row>
-    <row r="82" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="82" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="68"/>
       <c r="C82" s="52"/>
       <c r="D82" s="52"/>
@@ -33752,9 +33674,9 @@
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
     </row>
-    <row r="83" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="83" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" s="52"/>
       <c r="D83" s="52"/>
@@ -33765,39 +33687,39 @@
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
     </row>
-    <row r="84" spans="2:11" s="65" customFormat="1" ht="83.3" customHeight="1">
+    <row r="84" spans="2:11" s="65" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="172" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="172" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="172" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84" s="172" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" s="203" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="H84" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="D84" s="172" t="s">
-        <v>138</v>
+      <c r="I84" s="74" t="s">
+        <v>144</v>
       </c>
-      <c r="E84" s="172" t="s">
-        <v>139</v>
+      <c r="J84" s="178" t="s">
+        <v>145</v>
       </c>
-      <c r="F84" s="203" t="s">
-        <v>149</v>
-      </c>
-      <c r="G84" s="203" t="s">
-        <v>150</v>
-      </c>
-      <c r="H84" s="203" t="s">
+      <c r="K84" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="I84" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="J84" s="178" t="s">
-        <v>146</v>
-      </c>
-      <c r="K84" s="74" t="s">
-        <v>130</v>
-      </c>
     </row>
-    <row r="85" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="85" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="64" t="s">
         <v>21</v>
       </c>
@@ -33813,7 +33735,7 @@
       <c r="J85" s="170"/>
       <c r="K85" s="187"/>
     </row>
-    <row r="86" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="86" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="64" t="s">
         <v>22</v>
       </c>
@@ -33829,7 +33751,7 @@
       <c r="J86" s="170"/>
       <c r="K86" s="188"/>
     </row>
-    <row r="87" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="87" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="64" t="s">
         <v>23</v>
       </c>
@@ -33845,7 +33767,7 @@
       <c r="J87" s="170"/>
       <c r="K87" s="187"/>
     </row>
-    <row r="88" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="88" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="64" t="s">
         <v>24</v>
       </c>
@@ -33861,7 +33783,7 @@
       <c r="J88" s="170"/>
       <c r="K88" s="188"/>
     </row>
-    <row r="89" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="89" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="99" t="s">
         <v>28</v>
       </c>
@@ -33877,7 +33799,7 @@
       <c r="J89" s="170"/>
       <c r="K89" s="187"/>
     </row>
-    <row r="90" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="90" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="99" t="s">
         <v>29</v>
       </c>
@@ -33893,7 +33815,7 @@
       <c r="J90" s="170"/>
       <c r="K90" s="188"/>
     </row>
-    <row r="91" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="91" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="68"/>
       <c r="C91" s="52"/>
       <c r="D91" s="52"/>
@@ -33904,7 +33826,7 @@
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
     </row>
-    <row r="92" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="92" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="68"/>
       <c r="C92" s="52"/>
       <c r="D92" s="52"/>
@@ -33915,7 +33837,7 @@
       <c r="I92" s="29"/>
       <c r="J92" s="29"/>
     </row>
-    <row r="93" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="93" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="68"/>
       <c r="C93" s="52"/>
       <c r="D93" s="52"/>
@@ -33926,7 +33848,7 @@
       <c r="I93" s="29"/>
       <c r="J93" s="29"/>
     </row>
-    <row r="94" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="94" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="68"/>
       <c r="C94" s="52"/>
       <c r="D94" s="52"/>
@@ -33937,7 +33859,7 @@
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
     </row>
-    <row r="95" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="95" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="68"/>
       <c r="C95" s="52"/>
       <c r="D95" s="52"/>
@@ -33948,7 +33870,7 @@
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
     </row>
-    <row r="96" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="96" spans="2:11" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="68"/>
       <c r="C96" s="52"/>
       <c r="D96" s="52"/>
@@ -33959,7 +33881,7 @@
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="97" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="68"/>
       <c r="C97" s="52"/>
       <c r="D97" s="52"/>
@@ -33970,7 +33892,7 @@
       <c r="I97" s="29"/>
       <c r="J97" s="29"/>
     </row>
-    <row r="98" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="98" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="68"/>
       <c r="C98" s="52"/>
       <c r="D98" s="52"/>
@@ -33981,7 +33903,7 @@
       <c r="I98" s="29"/>
       <c r="J98" s="29"/>
     </row>
-    <row r="99" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="99" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="68"/>
       <c r="C99" s="52"/>
       <c r="D99" s="52"/>
@@ -33992,7 +33914,7 @@
       <c r="I99" s="29"/>
       <c r="J99" s="29"/>
     </row>
-    <row r="100" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="100" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="68"/>
       <c r="C100" s="52"/>
       <c r="D100" s="52"/>
@@ -34003,7 +33925,7 @@
       <c r="I100" s="29"/>
       <c r="J100" s="29"/>
     </row>
-    <row r="101" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="101" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="68"/>
       <c r="C101" s="52"/>
       <c r="D101" s="52"/>
@@ -34014,7 +33936,7 @@
       <c r="I101" s="29"/>
       <c r="J101" s="29"/>
     </row>
-    <row r="102" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="102" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="68"/>
       <c r="C102" s="52"/>
       <c r="D102" s="52"/>
@@ -34025,7 +33947,7 @@
       <c r="I102" s="29"/>
       <c r="J102" s="29"/>
     </row>
-    <row r="103" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="103" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="68"/>
       <c r="C103" s="52"/>
       <c r="D103" s="52"/>
@@ -34036,7 +33958,7 @@
       <c r="I103" s="29"/>
       <c r="J103" s="29"/>
     </row>
-    <row r="104" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="104" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="68"/>
       <c r="C104" s="52"/>
       <c r="D104" s="52"/>
@@ -34047,7 +33969,7 @@
       <c r="I104" s="29"/>
       <c r="J104" s="29"/>
     </row>
-    <row r="105" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="105" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="68"/>
       <c r="C105" s="52"/>
       <c r="D105" s="52"/>
@@ -34058,7 +33980,7 @@
       <c r="I105" s="29"/>
       <c r="J105" s="29"/>
     </row>
-    <row r="106" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="106" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="68"/>
       <c r="C106" s="52"/>
       <c r="D106" s="52"/>
@@ -34069,7 +33991,7 @@
       <c r="I106" s="29"/>
       <c r="J106" s="29"/>
     </row>
-    <row r="107" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="107" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="68"/>
       <c r="C107" s="52"/>
       <c r="D107" s="52"/>
@@ -34080,7 +34002,7 @@
       <c r="I107" s="29"/>
       <c r="J107" s="29"/>
     </row>
-    <row r="108" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="108" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="68"/>
       <c r="C108" s="52"/>
       <c r="D108" s="52"/>
@@ -34091,7 +34013,7 @@
       <c r="I108" s="29"/>
       <c r="J108" s="29"/>
     </row>
-    <row r="109" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="109" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="68"/>
       <c r="C109" s="52"/>
       <c r="D109" s="52"/>
@@ -34102,7 +34024,7 @@
       <c r="I109" s="29"/>
       <c r="J109" s="29"/>
     </row>
-    <row r="110" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="110" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="68"/>
       <c r="C110" s="52"/>
       <c r="D110" s="52"/>
@@ -34113,7 +34035,7 @@
       <c r="I110" s="29"/>
       <c r="J110" s="29"/>
     </row>
-    <row r="111" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="111" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="68"/>
       <c r="C111" s="52"/>
       <c r="D111" s="52"/>
@@ -34124,7 +34046,7 @@
       <c r="I111" s="29"/>
       <c r="J111" s="29"/>
     </row>
-    <row r="112" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="112" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="68"/>
       <c r="C112" s="52"/>
       <c r="D112" s="52"/>
@@ -34135,7 +34057,7 @@
       <c r="I112" s="29"/>
       <c r="J112" s="29"/>
     </row>
-    <row r="113" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="113" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="68"/>
       <c r="C113" s="52"/>
       <c r="D113" s="52"/>
@@ -34146,7 +34068,7 @@
       <c r="I113" s="29"/>
       <c r="J113" s="29"/>
     </row>
-    <row r="114" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="114" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="68"/>
       <c r="C114" s="52"/>
       <c r="D114" s="52"/>
@@ -34157,7 +34079,7 @@
       <c r="I114" s="29"/>
       <c r="J114" s="29"/>
     </row>
-    <row r="115" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="115" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="68"/>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
@@ -34168,7 +34090,7 @@
       <c r="I115" s="29"/>
       <c r="J115" s="29"/>
     </row>
-    <row r="116" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="116" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="68"/>
       <c r="C116" s="52"/>
       <c r="D116" s="52"/>
@@ -34179,7 +34101,7 @@
       <c r="I116" s="29"/>
       <c r="J116" s="29"/>
     </row>
-    <row r="117" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="117" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="68"/>
       <c r="C117" s="52"/>
       <c r="D117" s="52"/>
@@ -34190,7 +34112,7 @@
       <c r="I117" s="29"/>
       <c r="J117" s="29"/>
     </row>
-    <row r="118" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="118" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="68"/>
       <c r="C118" s="52"/>
       <c r="D118" s="52"/>
@@ -34201,7 +34123,7 @@
       <c r="I118" s="29"/>
       <c r="J118" s="29"/>
     </row>
-    <row r="119" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="119" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="68"/>
       <c r="C119" s="52"/>
       <c r="D119" s="52"/>
@@ -34212,7 +34134,7 @@
       <c r="I119" s="29"/>
       <c r="J119" s="29"/>
     </row>
-    <row r="120" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="120" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="68"/>
       <c r="C120" s="52"/>
       <c r="D120" s="52"/>
@@ -34223,7 +34145,7 @@
       <c r="I120" s="29"/>
       <c r="J120" s="29"/>
     </row>
-    <row r="121" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="121" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="68"/>
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
@@ -34234,7 +34156,7 @@
       <c r="I121" s="29"/>
       <c r="J121" s="29"/>
     </row>
-    <row r="122" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="122" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="68"/>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
@@ -34245,7 +34167,7 @@
       <c r="I122" s="29"/>
       <c r="J122" s="29"/>
     </row>
-    <row r="123" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="123" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="68"/>
       <c r="C123" s="52"/>
       <c r="D123" s="52"/>
@@ -34256,7 +34178,7 @@
       <c r="I123" s="29"/>
       <c r="J123" s="29"/>
     </row>
-    <row r="124" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="124" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="68"/>
       <c r="C124" s="52"/>
       <c r="D124" s="52"/>
@@ -34267,7 +34189,7 @@
       <c r="I124" s="29"/>
       <c r="J124" s="29"/>
     </row>
-    <row r="125" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="125" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="68"/>
       <c r="C125" s="52"/>
       <c r="D125" s="52"/>
@@ -34278,7 +34200,7 @@
       <c r="I125" s="29"/>
       <c r="J125" s="29"/>
     </row>
-    <row r="126" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="126" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="68"/>
       <c r="C126" s="52"/>
       <c r="D126" s="52"/>
@@ -34289,7 +34211,7 @@
       <c r="I126" s="29"/>
       <c r="J126" s="29"/>
     </row>
-    <row r="127" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="127" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="68"/>
       <c r="C127" s="52"/>
       <c r="D127" s="52"/>
@@ -34300,7 +34222,7 @@
       <c r="I127" s="29"/>
       <c r="J127" s="29"/>
     </row>
-    <row r="128" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="128" spans="2:10" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="68"/>
       <c r="C128" s="52"/>
       <c r="D128" s="52"/>
@@ -34311,7 +34233,7 @@
       <c r="I128" s="29"/>
       <c r="J128" s="29"/>
     </row>
-    <row r="129" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="129" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="68"/>
       <c r="C129" s="52"/>
       <c r="D129" s="52"/>
@@ -34326,7 +34248,7 @@
         <v>資料日期：2011年2月22日</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="130" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="68"/>
       <c r="C130" s="52"/>
       <c r="D130" s="52"/>
@@ -34337,7 +34259,7 @@
       <c r="I130" s="29"/>
       <c r="J130" s="29"/>
     </row>
-    <row r="131" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="131" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="68"/>
       <c r="C131" s="52"/>
       <c r="D131" s="52"/>
@@ -34348,7 +34270,7 @@
       <c r="I131" s="29"/>
       <c r="J131" s="29"/>
     </row>
-    <row r="132" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="132" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="100"/>
       <c r="C132" s="101"/>
       <c r="D132" s="102"/>
@@ -34361,9 +34283,9 @@
       <c r="L132" s="79"/>
       <c r="M132" s="80"/>
     </row>
-    <row r="133" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="133" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C133" s="52"/>
       <c r="D133" s="52"/>
@@ -34374,39 +34296,39 @@
       <c r="I133" s="29"/>
       <c r="J133" s="29"/>
     </row>
-    <row r="134" spans="2:13" s="65" customFormat="1" ht="80.150000000000006">
+    <row r="134" spans="2:13" s="65" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="B134" s="172" t="s">
         <v>17</v>
       </c>
       <c r="C134" s="172" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D134" s="172" t="s">
+        <v>137</v>
+      </c>
+      <c r="E134" s="172" t="s">
         <v>138</v>
       </c>
-      <c r="E134" s="172" t="s">
-        <v>139</v>
+      <c r="F134" s="196" t="s">
+        <v>148</v>
       </c>
-      <c r="F134" s="196" t="s">
+      <c r="G134" s="196" t="s">
         <v>149</v>
       </c>
-      <c r="G134" s="196" t="s">
+      <c r="H134" s="196" t="s">
         <v>150</v>
       </c>
-      <c r="H134" s="196" t="s">
-        <v>151</v>
+      <c r="I134" s="74" t="s">
+        <v>144</v>
       </c>
-      <c r="I134" s="74" t="s">
+      <c r="J134" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="J134" s="178" t="s">
-        <v>146</v>
-      </c>
       <c r="K134" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="135" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="64" t="s">
         <v>21</v>
       </c>
@@ -34422,7 +34344,7 @@
       <c r="J135" s="170"/>
       <c r="K135" s="187"/>
     </row>
-    <row r="136" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="136" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="64" t="s">
         <v>22</v>
       </c>
@@ -34441,7 +34363,7 @@
       <c r="J136" s="170"/>
       <c r="K136" s="188"/>
     </row>
-    <row r="137" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="137" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="64" t="s">
         <v>23</v>
       </c>
@@ -34457,7 +34379,7 @@
       <c r="J137" s="170"/>
       <c r="K137" s="187"/>
     </row>
-    <row r="138" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="138" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="64" t="s">
         <v>24</v>
       </c>
@@ -34476,7 +34398,7 @@
       <c r="J138" s="170"/>
       <c r="K138" s="188"/>
     </row>
-    <row r="139" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="139" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="99" t="s">
         <v>28</v>
       </c>
@@ -34492,7 +34414,7 @@
       <c r="J139" s="170"/>
       <c r="K139" s="187"/>
     </row>
-    <row r="140" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="140" spans="2:13" s="65" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="99" t="s">
         <v>29</v>
       </c>
@@ -34511,9 +34433,9 @@
       <c r="J140" s="170"/>
       <c r="K140" s="188"/>
     </row>
-    <row r="141" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="141" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="212" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C141" s="212"/>
       <c r="D141" s="212"/>
@@ -34527,7 +34449,7 @@
       <c r="L141" s="80"/>
       <c r="M141" s="80"/>
     </row>
-    <row r="142" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="142" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="84"/>
       <c r="C142" s="85"/>
       <c r="D142" s="86"/>
@@ -34541,7 +34463,7 @@
       <c r="L142" s="80"/>
       <c r="M142" s="80"/>
     </row>
-    <row r="143" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="143" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="84"/>
       <c r="C143" s="85"/>
       <c r="D143" s="86"/>
@@ -34555,7 +34477,7 @@
       <c r="L143" s="80"/>
       <c r="M143" s="80"/>
     </row>
-    <row r="144" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="144" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="84"/>
       <c r="C144" s="85"/>
       <c r="D144" s="86"/>
@@ -34569,7 +34491,7 @@
       <c r="L144" s="80"/>
       <c r="M144" s="80"/>
     </row>
-    <row r="145" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="145" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="84"/>
       <c r="C145" s="85"/>
       <c r="D145" s="86"/>
@@ -34583,7 +34505,7 @@
       <c r="L145" s="80"/>
       <c r="M145" s="80"/>
     </row>
-    <row r="146" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="146" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="84"/>
       <c r="C146" s="85"/>
       <c r="D146" s="86"/>
@@ -34597,7 +34519,7 @@
       <c r="L146" s="80"/>
       <c r="M146" s="80"/>
     </row>
-    <row r="147" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="147" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="84"/>
       <c r="C147" s="85"/>
       <c r="D147" s="86"/>
@@ -34611,7 +34533,7 @@
       <c r="L147" s="80"/>
       <c r="M147" s="80"/>
     </row>
-    <row r="148" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="148" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="84"/>
       <c r="C148" s="85"/>
       <c r="D148" s="86"/>
@@ -34625,7 +34547,7 @@
       <c r="L148" s="80"/>
       <c r="M148" s="80"/>
     </row>
-    <row r="149" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="149" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="84"/>
       <c r="C149" s="85"/>
       <c r="D149" s="86"/>
@@ -34639,7 +34561,7 @@
       <c r="L149" s="80"/>
       <c r="M149" s="80"/>
     </row>
-    <row r="150" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="150" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="84"/>
       <c r="C150" s="85"/>
       <c r="D150" s="86"/>
@@ -34653,7 +34575,7 @@
       <c r="L150" s="80"/>
       <c r="M150" s="80"/>
     </row>
-    <row r="151" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="151" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="84"/>
       <c r="C151" s="85"/>
       <c r="D151" s="86"/>
@@ -34667,7 +34589,7 @@
       <c r="L151" s="80"/>
       <c r="M151" s="80"/>
     </row>
-    <row r="152" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="152" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="84"/>
       <c r="C152" s="85"/>
       <c r="D152" s="86"/>
@@ -34681,7 +34603,7 @@
       <c r="L152" s="80"/>
       <c r="M152" s="80"/>
     </row>
-    <row r="153" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="153" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="84"/>
       <c r="C153" s="85"/>
       <c r="D153" s="86"/>
@@ -34695,7 +34617,7 @@
       <c r="L153" s="80"/>
       <c r="M153" s="80"/>
     </row>
-    <row r="154" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="154" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="84"/>
       <c r="C154" s="85"/>
       <c r="D154" s="86"/>
@@ -34709,7 +34631,7 @@
       <c r="L154" s="80"/>
       <c r="M154" s="80"/>
     </row>
-    <row r="155" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="155" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="84"/>
       <c r="C155" s="85"/>
       <c r="D155" s="86"/>
@@ -34723,7 +34645,7 @@
       <c r="L155" s="80"/>
       <c r="M155" s="80"/>
     </row>
-    <row r="156" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="156" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="84"/>
       <c r="C156" s="85"/>
       <c r="D156" s="86"/>
@@ -34737,7 +34659,7 @@
       <c r="L156" s="80"/>
       <c r="M156" s="80"/>
     </row>
-    <row r="157" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="157" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="84"/>
       <c r="C157" s="85"/>
       <c r="D157" s="86"/>
@@ -34751,7 +34673,7 @@
       <c r="L157" s="80"/>
       <c r="M157" s="80"/>
     </row>
-    <row r="158" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="158" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="84"/>
       <c r="C158" s="85"/>
       <c r="D158" s="86"/>
@@ -34765,7 +34687,7 @@
       <c r="L158" s="80"/>
       <c r="M158" s="80"/>
     </row>
-    <row r="159" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="159" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="84"/>
       <c r="C159" s="85"/>
       <c r="D159" s="86"/>
@@ -34779,7 +34701,7 @@
       <c r="L159" s="80"/>
       <c r="M159" s="80"/>
     </row>
-    <row r="160" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="160" spans="2:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="84"/>
       <c r="C160" s="85"/>
       <c r="D160" s="86"/>
@@ -34793,7 +34715,7 @@
       <c r="L160" s="80"/>
       <c r="M160" s="80"/>
     </row>
-    <row r="161" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="161" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="84"/>
       <c r="C161" s="85"/>
       <c r="D161" s="86"/>
@@ -34807,7 +34729,7 @@
       <c r="L161" s="80"/>
       <c r="M161" s="80"/>
     </row>
-    <row r="162" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="162" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="84"/>
       <c r="C162" s="85"/>
       <c r="D162" s="86"/>
@@ -34821,7 +34743,7 @@
       <c r="L162" s="80"/>
       <c r="M162" s="80"/>
     </row>
-    <row r="163" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="163" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="84"/>
       <c r="C163" s="85"/>
       <c r="D163" s="86"/>
@@ -34835,7 +34757,7 @@
       <c r="L163" s="80"/>
       <c r="M163" s="80"/>
     </row>
-    <row r="164" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="164" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="84"/>
       <c r="C164" s="85"/>
       <c r="D164" s="86"/>
@@ -34849,7 +34771,7 @@
       <c r="L164" s="80"/>
       <c r="M164" s="80"/>
     </row>
-    <row r="165" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="165" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="84"/>
       <c r="C165" s="85"/>
       <c r="D165" s="86"/>
@@ -34863,7 +34785,7 @@
       <c r="L165" s="80"/>
       <c r="M165" s="80"/>
     </row>
-    <row r="166" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="166" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="84"/>
       <c r="C166" s="85"/>
       <c r="D166" s="86"/>
@@ -34877,7 +34799,7 @@
       <c r="L166" s="80"/>
       <c r="M166" s="80"/>
     </row>
-    <row r="167" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="167" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="84"/>
       <c r="C167" s="85"/>
       <c r="D167" s="86"/>
@@ -34891,7 +34813,7 @@
       <c r="L167" s="80"/>
       <c r="M167" s="80"/>
     </row>
-    <row r="168" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="168" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="84"/>
       <c r="C168" s="85"/>
       <c r="D168" s="86"/>
@@ -34905,7 +34827,7 @@
       <c r="L168" s="80"/>
       <c r="M168" s="80"/>
     </row>
-    <row r="169" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="169" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="84"/>
       <c r="C169" s="85"/>
       <c r="D169" s="86"/>
@@ -34919,7 +34841,7 @@
       <c r="L169" s="80"/>
       <c r="M169" s="80"/>
     </row>
-    <row r="170" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="170" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="84"/>
       <c r="C170" s="85"/>
       <c r="D170" s="86"/>
@@ -34933,7 +34855,7 @@
       <c r="L170" s="80"/>
       <c r="M170" s="80"/>
     </row>
-    <row r="171" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="171" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="84"/>
       <c r="C171" s="85"/>
       <c r="D171" s="86"/>
@@ -34947,7 +34869,7 @@
       <c r="L171" s="80"/>
       <c r="M171" s="80"/>
     </row>
-    <row r="172" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="172" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="84"/>
       <c r="C172" s="85"/>
       <c r="D172" s="86"/>
@@ -34961,7 +34883,7 @@
       <c r="L172" s="80"/>
       <c r="M172" s="80"/>
     </row>
-    <row r="173" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="173" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="84"/>
       <c r="C173" s="85"/>
       <c r="D173" s="86"/>
@@ -34975,7 +34897,7 @@
       <c r="L173" s="80"/>
       <c r="M173" s="80"/>
     </row>
-    <row r="174" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="174" spans="1:13" s="82" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="84"/>
       <c r="C174" s="85"/>
       <c r="D174" s="86"/>
@@ -34989,7 +34911,7 @@
       <c r="L174" s="80"/>
       <c r="M174" s="80"/>
     </row>
-    <row r="175" spans="1:13" ht="19.899999999999999" customHeight="1">
+    <row r="175" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="88"/>
       <c r="B175" s="84"/>
       <c r="C175" s="72"/>
@@ -34998,7 +34920,7 @@
       <c r="F175" s="72"/>
       <c r="G175" s="72"/>
     </row>
-    <row r="176" spans="1:13" ht="19.899999999999999" customHeight="1">
+    <row r="176" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="88"/>
       <c r="B176" s="84"/>
       <c r="C176" s="72"/>
@@ -35007,7 +34929,7 @@
       <c r="F176" s="72"/>
       <c r="G176" s="72"/>
     </row>
-    <row r="177" spans="1:11" ht="19.899999999999999" customHeight="1">
+    <row r="177" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="88"/>
       <c r="B177" s="84"/>
       <c r="C177" s="72"/>
@@ -35016,12 +34938,12 @@
       <c r="F177" s="72"/>
       <c r="G177" s="72"/>
     </row>
-    <row r="178" spans="1:11" s="88" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="178" spans="1:11" s="88" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="90" t="s">
         <v>18</v>
       </c>
       <c r="B178" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C178" s="31"/>
       <c r="D178" s="31"/>
@@ -35032,12 +34954,12 @@
       <c r="I178" s="91"/>
       <c r="J178" s="91"/>
     </row>
-    <row r="179" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="179" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="92" t="s">
         <v>19</v>
       </c>
       <c r="B179" s="175" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D179" s="176"/>
       <c r="E179" s="176"/>
@@ -35045,9 +34967,9 @@
       <c r="G179" s="93"/>
       <c r="H179" s="94"/>
     </row>
-    <row r="180" spans="1:11" ht="40.4" customHeight="1">
+    <row r="180" spans="1:11" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C180" s="216"/>
       <c r="D180" s="216"/>
@@ -35059,7 +34981,7 @@
       <c r="J180" s="216"/>
       <c r="K180" s="216"/>
     </row>
-    <row r="181" spans="1:11" ht="4.55" customHeight="1">
+    <row r="181" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="113"/>
       <c r="C181" s="113"/>
       <c r="D181" s="113"/>
@@ -35067,12 +34989,12 @@
       <c r="F181" s="113"/>
       <c r="G181" s="113"/>
     </row>
-    <row r="182" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="182" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="92" t="s">
         <v>19</v>
       </c>
       <c r="B182" s="175" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D182" s="176"/>
       <c r="E182" s="176"/>
@@ -35080,12 +35002,12 @@
       <c r="G182" s="93"/>
       <c r="H182" s="94"/>
     </row>
-    <row r="183" spans="1:11" s="205" customFormat="1" ht="18" customHeight="1">
+    <row r="183" spans="1:11" s="205" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="174">
         <v>2</v>
       </c>
       <c r="B183" s="210" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C183" s="210"/>
       <c r="D183" s="210"/>
@@ -35097,7 +35019,7 @@
       <c r="J183" s="210"/>
       <c r="K183" s="210"/>
     </row>
-    <row r="184" spans="1:11" ht="3" customHeight="1">
+    <row r="184" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="177"/>
       <c r="C184" s="177"/>
       <c r="D184" s="177"/>
@@ -35109,12 +35031,12 @@
       <c r="J184" s="177"/>
       <c r="K184" s="177"/>
     </row>
-    <row r="185" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="185" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="92" t="s">
         <v>19</v>
       </c>
       <c r="B185" s="175" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D185" s="176"/>
       <c r="E185" s="176"/>
@@ -35122,12 +35044,12 @@
       <c r="G185" s="93"/>
       <c r="H185" s="94"/>
     </row>
-    <row r="186" spans="1:11" s="205" customFormat="1" ht="18" customHeight="1">
+    <row r="186" spans="1:11" s="205" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="174">
         <v>2</v>
       </c>
       <c r="B186" s="210" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C186" s="210"/>
       <c r="D186" s="210"/>
@@ -35139,7 +35061,7 @@
       <c r="J186" s="210"/>
       <c r="K186" s="210"/>
     </row>
-    <row r="187" spans="1:11" ht="3" customHeight="1">
+    <row r="187" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="207"/>
       <c r="B187" s="207"/>
       <c r="C187" s="207"/>
@@ -35152,7 +35074,7 @@
       <c r="J187" s="207"/>
       <c r="K187" s="206"/>
     </row>
-    <row r="188" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="188" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="92"/>
       <c r="B188" s="175"/>
       <c r="D188" s="176"/>
@@ -35161,7 +35083,7 @@
       <c r="G188" s="93"/>
       <c r="H188" s="94"/>
     </row>
-    <row r="189" spans="1:11" s="205" customFormat="1" ht="20.7" hidden="1">
+    <row r="189" spans="1:11" s="205" customFormat="1" ht="20.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="174"/>
       <c r="B189" s="210"/>
       <c r="C189" s="210"/>
@@ -35174,13 +35096,13 @@
       <c r="J189" s="210"/>
       <c r="K189" s="210"/>
     </row>
-    <row r="190" spans="1:11" ht="3" hidden="1" customHeight="1">
+    <row r="190" spans="1:11" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="71"/>
       <c r="D190" s="95"/>
       <c r="E190" s="59"/>
       <c r="F190" s="71"/>
     </row>
-    <row r="191" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="191" spans="1:11" s="89" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="92"/>
       <c r="B191" s="175"/>
       <c r="D191" s="176"/>
@@ -35189,7 +35111,7 @@
       <c r="G191" s="93"/>
       <c r="H191" s="94"/>
     </row>
-    <row r="192" spans="1:11" s="205" customFormat="1" ht="20.7" hidden="1">
+    <row r="192" spans="1:11" s="205" customFormat="1" ht="20.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="174"/>
       <c r="B192" s="210"/>
       <c r="C192" s="210"/>
@@ -35202,7 +35124,7 @@
       <c r="J192" s="210"/>
       <c r="K192" s="210"/>
     </row>
-    <row r="194" spans="2:12" s="9" customFormat="1" ht="16.3">
+    <row r="194" spans="2:12" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B194" s="27" t="s">
         <v>20</v>
       </c>
@@ -35217,9 +35139,9 @@
       <c r="K194" s="96"/>
       <c r="L194" s="96"/>
     </row>
-    <row r="195" spans="2:12" ht="26.3" customHeight="1"/>
-    <row r="196" spans="2:12" ht="26.3" customHeight="1"/>
-    <row r="197" spans="2:12" ht="41.95" customHeight="1"/>
+    <row r="195" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="G12:H12"/>
@@ -35251,7 +35173,7 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G44:H44"/>
   </mergeCells>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.6692913385826772" right="0.47244094488188981" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -35276,27 +35198,27 @@
       <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="119" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="119" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="119" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="119" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="119" customWidth="1"/>
-    <col min="6" max="17" width="10.21875" style="119" customWidth="1"/>
-    <col min="18" max="19" width="11.88671875" style="119" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="119" customWidth="1"/>
-    <col min="21" max="23" width="10.44140625" style="137" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" style="137" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="119" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="119" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="119" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="119" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="119" customWidth="1"/>
+    <col min="6" max="17" width="10.25" style="119" customWidth="1"/>
+    <col min="18" max="19" width="11.875" style="119" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="119" customWidth="1"/>
+    <col min="21" max="23" width="10.5" style="137" customWidth="1"/>
+    <col min="24" max="24" width="11.125" style="137" customWidth="1"/>
     <col min="25" max="27" width="11" style="138" customWidth="1"/>
-    <col min="28" max="31" width="11.109375" style="137" customWidth="1"/>
-    <col min="32" max="33" width="9.33203125" style="139" customWidth="1"/>
-    <col min="34" max="34" width="11.109375" style="139" customWidth="1"/>
-    <col min="35" max="37" width="11.109375" style="140" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="119"/>
+    <col min="28" max="31" width="11.125" style="137" customWidth="1"/>
+    <col min="32" max="33" width="9.375" style="139" customWidth="1"/>
+    <col min="34" max="34" width="11.125" style="139" customWidth="1"/>
+    <col min="35" max="37" width="11.125" style="140" customWidth="1"/>
+    <col min="38" max="16384" width="8.875" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75" customHeight="1">
+    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="198"/>
       <c r="B1" s="118"/>
       <c r="U1" s="220" t="s">
@@ -35321,7 +35243,7 @@
       <c r="AJ1" s="220"/>
       <c r="AK1" s="220"/>
     </row>
-    <row r="2" spans="1:37" ht="73.25">
+    <row r="2" spans="1:37" ht="78" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
         <v>71</v>
       </c>
@@ -35434,7 +35356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1">
+    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120"/>
       <c r="B3" s="120"/>
       <c r="C3" s="128"/>
@@ -35473,7 +35395,7 @@
       <c r="AJ3" s="136"/>
       <c r="AK3" s="136"/>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1">
+    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="120"/>
       <c r="B4" s="120"/>
       <c r="C4" s="202"/>
@@ -35512,7 +35434,7 @@
       <c r="AJ4" s="136"/>
       <c r="AK4" s="136"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="120"/>
       <c r="B5" s="120"/>
       <c r="C5" s="202"/>
@@ -35551,7 +35473,7 @@
       <c r="AJ5" s="136"/>
       <c r="AK5" s="136"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1">
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="120"/>
       <c r="B6" s="120"/>
       <c r="C6" s="202"/>
@@ -35590,7 +35512,7 @@
       <c r="AJ6" s="136"/>
       <c r="AK6" s="136"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="120"/>
       <c r="B7" s="120"/>
       <c r="C7" s="202"/>
@@ -35629,7 +35551,7 @@
       <c r="AJ7" s="136"/>
       <c r="AK7" s="136"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="120"/>
       <c r="B8" s="120"/>
       <c r="C8" s="202"/>
@@ -35668,7 +35590,7 @@
       <c r="AJ8" s="136"/>
       <c r="AK8" s="136"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="120"/>
       <c r="B9" s="120"/>
       <c r="C9" s="201"/>
@@ -35707,7 +35629,7 @@
       <c r="AJ9" s="136"/>
       <c r="AK9" s="136"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1">
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120"/>
       <c r="B10" s="120"/>
       <c r="C10" s="128"/>
@@ -35746,7 +35668,7 @@
       <c r="AJ10" s="136"/>
       <c r="AK10" s="136"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120"/>
       <c r="B11" s="120"/>
       <c r="C11" s="128"/>
@@ -35785,7 +35707,7 @@
       <c r="AJ11" s="136"/>
       <c r="AK11" s="136"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120"/>
       <c r="B12" s="120"/>
       <c r="C12" s="128"/>
@@ -35824,7 +35746,7 @@
       <c r="AJ12" s="136"/>
       <c r="AK12" s="136"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="120"/>
       <c r="B13" s="120"/>
       <c r="C13" s="128"/>
@@ -35863,7 +35785,7 @@
       <c r="AJ13" s="136"/>
       <c r="AK13" s="136"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="120"/>
       <c r="B14" s="120"/>
       <c r="C14" s="128"/>
@@ -35902,7 +35824,7 @@
       <c r="AJ14" s="136"/>
       <c r="AK14" s="136"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="120"/>
       <c r="B15" s="120"/>
       <c r="C15" s="128"/>
@@ -35941,7 +35863,7 @@
       <c r="AJ15" s="136"/>
       <c r="AK15" s="136"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="120"/>
       <c r="B16" s="120"/>
       <c r="C16" s="128"/>
@@ -35980,7 +35902,7 @@
       <c r="AJ16" s="136"/>
       <c r="AK16" s="136"/>
     </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1">
+    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="120"/>
       <c r="B17" s="120"/>
       <c r="C17" s="128"/>
@@ -36019,7 +35941,7 @@
       <c r="AJ17" s="136"/>
       <c r="AK17" s="136"/>
     </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1">
+    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="120"/>
       <c r="B18" s="120"/>
       <c r="C18" s="128"/>
@@ -36058,7 +35980,7 @@
       <c r="AJ18" s="136"/>
       <c r="AK18" s="136"/>
     </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1">
+    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="120"/>
       <c r="B19" s="120"/>
       <c r="C19" s="128"/>
@@ -36097,7 +36019,7 @@
       <c r="AJ19" s="136"/>
       <c r="AK19" s="136"/>
     </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1">
+    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="120"/>
       <c r="B20" s="120"/>
       <c r="C20" s="128"/>
@@ -36136,7 +36058,7 @@
       <c r="AJ20" s="136"/>
       <c r="AK20" s="136"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1">
+    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="120"/>
       <c r="B21" s="120"/>
       <c r="C21" s="128"/>
@@ -36175,7 +36097,7 @@
       <c r="AJ21" s="136"/>
       <c r="AK21" s="136"/>
     </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1">
+    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="120"/>
       <c r="B22" s="120"/>
       <c r="C22" s="128"/>
@@ -36214,7 +36136,7 @@
       <c r="AJ22" s="136"/>
       <c r="AK22" s="136"/>
     </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1">
+    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="120"/>
       <c r="B23" s="120"/>
       <c r="C23" s="128"/>
@@ -36253,7 +36175,7 @@
       <c r="AJ23" s="136"/>
       <c r="AK23" s="136"/>
     </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1">
+    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="120"/>
       <c r="B24" s="120"/>
       <c r="C24" s="128"/>
@@ -36292,7 +36214,7 @@
       <c r="AJ24" s="136"/>
       <c r="AK24" s="136"/>
     </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1">
+    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="120"/>
       <c r="B25" s="120"/>
       <c r="C25" s="128"/>
@@ -36331,7 +36253,7 @@
       <c r="AJ25" s="136"/>
       <c r="AK25" s="136"/>
     </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1">
+    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="120"/>
       <c r="B26" s="120"/>
       <c r="C26" s="128"/>
@@ -36370,7 +36292,7 @@
       <c r="AJ26" s="136"/>
       <c r="AK26" s="136"/>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1">
+    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="120"/>
       <c r="B27" s="120"/>
       <c r="C27" s="128"/>
@@ -36409,7 +36331,7 @@
       <c r="AJ27" s="136"/>
       <c r="AK27" s="136"/>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1">
+    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="120"/>
       <c r="B28" s="120"/>
       <c r="C28" s="128"/>
@@ -36448,7 +36370,7 @@
       <c r="AJ28" s="136"/>
       <c r="AK28" s="136"/>
     </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1">
+    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="120"/>
       <c r="B29" s="120"/>
       <c r="C29" s="128"/>
@@ -36487,7 +36409,7 @@
       <c r="AJ29" s="136"/>
       <c r="AK29" s="136"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1">
+    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120"/>
       <c r="B30" s="120"/>
       <c r="C30" s="128"/>
@@ -36526,10 +36448,10 @@
       <c r="AJ30" s="136"/>
       <c r="AK30" s="136"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="152"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="U34" s="151" t="s">
         <v>40</v>
       </c>
@@ -36539,7 +36461,7 @@
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="AB1:AK1"/>
   </mergeCells>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -36555,25 +36477,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="119" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="119" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" style="119" customWidth="1"/>
-    <col min="16" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="119" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="119" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="119" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="119" customWidth="1"/>
+    <col min="16" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="11.875" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="119" customWidth="1"/>
     <col min="21" max="21" width="11" style="144" customWidth="1"/>
     <col min="22" max="24" width="11" customWidth="1"/>
     <col min="25" max="27" width="11" style="145" customWidth="1"/>
@@ -36583,11 +36505,11 @@
     <col min="35" max="37" width="11" style="146" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="119" customFormat="1" ht="41.95" customHeight="1">
+    <row r="1" spans="1:37" s="119" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="199"/>
       <c r="B1" s="118"/>
       <c r="U1" s="221" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V1" s="220"/>
       <c r="W1" s="220"/>
@@ -36596,7 +36518,7 @@
       <c r="Z1" s="220"/>
       <c r="AA1" s="220"/>
       <c r="AB1" s="222" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC1" s="223"/>
       <c r="AD1" s="223"/>
@@ -36608,7 +36530,7 @@
       <c r="AJ1" s="223"/>
       <c r="AK1" s="224"/>
     </row>
-    <row r="2" spans="1:37" s="119" customFormat="1" ht="73.25">
+    <row r="2" spans="1:37" s="119" customFormat="1" ht="78" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
         <v>104</v>
       </c>
@@ -36721,7 +36643,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120"/>
       <c r="B3" s="120"/>
       <c r="C3" s="202"/>
@@ -36760,7 +36682,7 @@
       <c r="AJ3" s="136"/>
       <c r="AK3" s="136"/>
     </row>
-    <row r="4" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="120"/>
       <c r="B4" s="120"/>
       <c r="C4" s="202"/>
@@ -36799,7 +36721,7 @@
       <c r="AJ4" s="136"/>
       <c r="AK4" s="136"/>
     </row>
-    <row r="5" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="120"/>
       <c r="B5" s="120"/>
       <c r="C5" s="202"/>
@@ -36838,7 +36760,7 @@
       <c r="AJ5" s="136"/>
       <c r="AK5" s="136"/>
     </row>
-    <row r="6" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="120"/>
       <c r="B6" s="120"/>
       <c r="C6" s="202"/>
@@ -36877,7 +36799,7 @@
       <c r="AJ6" s="136"/>
       <c r="AK6" s="136"/>
     </row>
-    <row r="7" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="120"/>
       <c r="B7" s="120"/>
       <c r="C7" s="128"/>
@@ -36916,7 +36838,7 @@
       <c r="AJ7" s="136"/>
       <c r="AK7" s="136"/>
     </row>
-    <row r="8" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="120"/>
       <c r="B8" s="120"/>
       <c r="C8" s="128"/>
@@ -36955,7 +36877,7 @@
       <c r="AJ8" s="136"/>
       <c r="AK8" s="136"/>
     </row>
-    <row r="9" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="120"/>
       <c r="B9" s="120"/>
       <c r="C9" s="128"/>
@@ -36994,7 +36916,7 @@
       <c r="AJ9" s="136"/>
       <c r="AK9" s="136"/>
     </row>
-    <row r="10" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="10" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120"/>
       <c r="B10" s="120"/>
       <c r="C10" s="128"/>
@@ -37033,7 +36955,7 @@
       <c r="AJ10" s="136"/>
       <c r="AK10" s="136"/>
     </row>
-    <row r="11" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="11" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120"/>
       <c r="B11" s="120"/>
       <c r="C11" s="128"/>
@@ -37072,7 +36994,7 @@
       <c r="AJ11" s="136"/>
       <c r="AK11" s="136"/>
     </row>
-    <row r="12" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="12" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120"/>
       <c r="B12" s="120"/>
       <c r="C12" s="128"/>
@@ -37111,7 +37033,7 @@
       <c r="AJ12" s="136"/>
       <c r="AK12" s="136"/>
     </row>
-    <row r="13" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="13" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="120"/>
       <c r="B13" s="120"/>
       <c r="C13" s="128"/>
@@ -37150,7 +37072,7 @@
       <c r="AJ13" s="136"/>
       <c r="AK13" s="136"/>
     </row>
-    <row r="14" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="14" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="120"/>
       <c r="B14" s="120"/>
       <c r="C14" s="128"/>
@@ -37189,7 +37111,7 @@
       <c r="AJ14" s="136"/>
       <c r="AK14" s="136"/>
     </row>
-    <row r="15" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="15" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="120"/>
       <c r="B15" s="120"/>
       <c r="C15" s="128"/>
@@ -37228,7 +37150,7 @@
       <c r="AJ15" s="136"/>
       <c r="AK15" s="136"/>
     </row>
-    <row r="16" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="16" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="120"/>
       <c r="B16" s="120"/>
       <c r="C16" s="128"/>
@@ -37267,7 +37189,7 @@
       <c r="AJ16" s="136"/>
       <c r="AK16" s="136"/>
     </row>
-    <row r="17" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="17" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="120"/>
       <c r="B17" s="120"/>
       <c r="C17" s="128"/>
@@ -37306,7 +37228,7 @@
       <c r="AJ17" s="136"/>
       <c r="AK17" s="136"/>
     </row>
-    <row r="18" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="18" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="120"/>
       <c r="B18" s="120"/>
       <c r="C18" s="128"/>
@@ -37345,7 +37267,7 @@
       <c r="AJ18" s="136"/>
       <c r="AK18" s="136"/>
     </row>
-    <row r="19" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="19" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="120"/>
       <c r="B19" s="120"/>
       <c r="C19" s="128"/>
@@ -37384,7 +37306,7 @@
       <c r="AJ19" s="136"/>
       <c r="AK19" s="136"/>
     </row>
-    <row r="20" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="20" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="120"/>
       <c r="B20" s="120"/>
       <c r="C20" s="128"/>
@@ -37423,7 +37345,7 @@
       <c r="AJ20" s="136"/>
       <c r="AK20" s="136"/>
     </row>
-    <row r="21" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="21" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="120"/>
       <c r="B21" s="120"/>
       <c r="C21" s="128"/>
@@ -37462,7 +37384,7 @@
       <c r="AJ21" s="136"/>
       <c r="AK21" s="136"/>
     </row>
-    <row r="22" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="120"/>
       <c r="B22" s="120"/>
       <c r="C22" s="128"/>
@@ -37501,7 +37423,7 @@
       <c r="AJ22" s="136"/>
       <c r="AK22" s="136"/>
     </row>
-    <row r="23" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="23" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="120"/>
       <c r="B23" s="120"/>
       <c r="C23" s="128"/>
@@ -37540,7 +37462,7 @@
       <c r="AJ23" s="136"/>
       <c r="AK23" s="136"/>
     </row>
-    <row r="24" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="24" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="120"/>
       <c r="B24" s="120"/>
       <c r="C24" s="128"/>
@@ -37579,7 +37501,7 @@
       <c r="AJ24" s="136"/>
       <c r="AK24" s="136"/>
     </row>
-    <row r="25" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="25" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="120"/>
       <c r="B25" s="120"/>
       <c r="C25" s="128"/>
@@ -37618,7 +37540,7 @@
       <c r="AJ25" s="136"/>
       <c r="AK25" s="136"/>
     </row>
-    <row r="26" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="26" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="120"/>
       <c r="B26" s="120"/>
       <c r="C26" s="128"/>
@@ -37657,7 +37579,7 @@
       <c r="AJ26" s="136"/>
       <c r="AK26" s="136"/>
     </row>
-    <row r="27" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="27" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="120"/>
       <c r="B27" s="120"/>
       <c r="C27" s="128"/>
@@ -37696,7 +37618,7 @@
       <c r="AJ27" s="136"/>
       <c r="AK27" s="136"/>
     </row>
-    <row r="28" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="28" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="120"/>
       <c r="B28" s="120"/>
       <c r="C28" s="128"/>
@@ -37735,7 +37657,7 @@
       <c r="AJ28" s="136"/>
       <c r="AK28" s="136"/>
     </row>
-    <row r="29" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="120"/>
       <c r="B29" s="120"/>
       <c r="C29" s="128"/>
@@ -37774,7 +37696,7 @@
       <c r="AJ29" s="136"/>
       <c r="AK29" s="136"/>
     </row>
-    <row r="30" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1">
+    <row r="30" spans="1:37" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120"/>
       <c r="B30" s="120"/>
       <c r="C30" s="128"/>
@@ -37813,10 +37735,10 @@
       <c r="AJ30" s="136"/>
       <c r="AK30" s="136"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="151"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="U34" s="151" t="s">
         <v>73</v>
       </c>
@@ -37826,7 +37748,7 @@
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="AB1:AK1"/>
   </mergeCells>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
